--- a/inst/dados_premissas/2024/custos.xlsx
+++ b/inst/dados_premissas/2024/custos.xlsx
@@ -1,18 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9BF25B5-8EA5-4CFA-9B94-2F38D138BD9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{123FB8D4-7929-46EB-A67F-97044728C0D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21120" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2820" yWindow="2445" windowWidth="24450" windowHeight="11985" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="custos" sheetId="1" r:id="rId1"/>
   </sheets>
-  <externalReferences>
-    <externalReference r:id="rId2"/>
-  </externalReferences>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
@@ -123,2259 +120,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
-  <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
-    <xxl21:alternateUrls>
-      <xxl21:absoluteUrl r:id="rId2"/>
-    </xxl21:alternateUrls>
-    <sheetNames>
-      <sheetName val="custos"/>
-      <sheetName val="calculos"/>
-      <sheetName val="Planilha1"/>
-    </sheetNames>
-    <sheetDataSet>
-      <sheetData sheetId="0">
-        <row r="2">
-          <cell r="A2" t="str">
-            <v>residencial</v>
-          </cell>
-          <cell r="B2">
-            <v>2013</v>
-          </cell>
-        </row>
-        <row r="3">
-          <cell r="A3" t="str">
-            <v>residencial</v>
-          </cell>
-          <cell r="B3">
-            <v>2014</v>
-          </cell>
-        </row>
-        <row r="4">
-          <cell r="A4" t="str">
-            <v>residencial</v>
-          </cell>
-          <cell r="B4">
-            <v>2015</v>
-          </cell>
-        </row>
-        <row r="5">
-          <cell r="A5" t="str">
-            <v>residencial</v>
-          </cell>
-          <cell r="B5">
-            <v>2016</v>
-          </cell>
-        </row>
-        <row r="6">
-          <cell r="A6" t="str">
-            <v>residencial</v>
-          </cell>
-          <cell r="B6">
-            <v>2017</v>
-          </cell>
-        </row>
-        <row r="7">
-          <cell r="A7" t="str">
-            <v>residencial</v>
-          </cell>
-          <cell r="B7">
-            <v>2018</v>
-          </cell>
-        </row>
-        <row r="8">
-          <cell r="A8" t="str">
-            <v>residencial</v>
-          </cell>
-          <cell r="B8">
-            <v>2019</v>
-          </cell>
-        </row>
-        <row r="9">
-          <cell r="A9" t="str">
-            <v>residencial</v>
-          </cell>
-          <cell r="B9">
-            <v>2020</v>
-          </cell>
-        </row>
-        <row r="10">
-          <cell r="A10" t="str">
-            <v>residencial</v>
-          </cell>
-          <cell r="B10">
-            <v>2021</v>
-          </cell>
-        </row>
-        <row r="11">
-          <cell r="A11" t="str">
-            <v>residencial</v>
-          </cell>
-          <cell r="B11">
-            <v>2022</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>residencial</v>
-          </cell>
-          <cell r="B12">
-            <v>2023</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>residencial</v>
-          </cell>
-          <cell r="B13">
-            <v>2024</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>residencial</v>
-          </cell>
-          <cell r="B14">
-            <v>2025</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>residencial</v>
-          </cell>
-          <cell r="B15">
-            <v>2026</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>residencial</v>
-          </cell>
-          <cell r="B16">
-            <v>2027</v>
-          </cell>
-        </row>
-        <row r="17">
-          <cell r="A17" t="str">
-            <v>residencial</v>
-          </cell>
-          <cell r="B17">
-            <v>2028</v>
-          </cell>
-        </row>
-        <row r="18">
-          <cell r="A18" t="str">
-            <v>residencial</v>
-          </cell>
-          <cell r="B18">
-            <v>2029</v>
-          </cell>
-        </row>
-        <row r="19">
-          <cell r="A19" t="str">
-            <v>residencial</v>
-          </cell>
-          <cell r="B19">
-            <v>2030</v>
-          </cell>
-        </row>
-        <row r="20">
-          <cell r="A20" t="str">
-            <v>residencial</v>
-          </cell>
-          <cell r="B20">
-            <v>2031</v>
-          </cell>
-        </row>
-        <row r="21">
-          <cell r="A21" t="str">
-            <v>residencial</v>
-          </cell>
-          <cell r="B21">
-            <v>2032</v>
-          </cell>
-        </row>
-        <row r="22">
-          <cell r="A22" t="str">
-            <v>residencial</v>
-          </cell>
-          <cell r="B22">
-            <v>2033</v>
-          </cell>
-        </row>
-        <row r="23">
-          <cell r="A23" t="str">
-            <v>residencial</v>
-          </cell>
-          <cell r="B23">
-            <v>2034</v>
-          </cell>
-        </row>
-        <row r="24">
-          <cell r="A24" t="str">
-            <v>residencial</v>
-          </cell>
-          <cell r="B24">
-            <v>2035</v>
-          </cell>
-        </row>
-        <row r="25">
-          <cell r="A25" t="str">
-            <v>residencial</v>
-          </cell>
-          <cell r="B25">
-            <v>2036</v>
-          </cell>
-        </row>
-        <row r="26">
-          <cell r="A26" t="str">
-            <v>residencial</v>
-          </cell>
-          <cell r="B26">
-            <v>2037</v>
-          </cell>
-        </row>
-        <row r="27">
-          <cell r="A27" t="str">
-            <v>residencial</v>
-          </cell>
-          <cell r="B27">
-            <v>2038</v>
-          </cell>
-        </row>
-        <row r="28">
-          <cell r="A28" t="str">
-            <v>residencial</v>
-          </cell>
-          <cell r="B28">
-            <v>2039</v>
-          </cell>
-        </row>
-        <row r="29">
-          <cell r="A29" t="str">
-            <v>residencial</v>
-          </cell>
-          <cell r="B29">
-            <v>2040</v>
-          </cell>
-        </row>
-        <row r="30">
-          <cell r="A30" t="str">
-            <v>residencial</v>
-          </cell>
-          <cell r="B30">
-            <v>2041</v>
-          </cell>
-        </row>
-        <row r="31">
-          <cell r="A31" t="str">
-            <v>residencial</v>
-          </cell>
-          <cell r="B31">
-            <v>2042</v>
-          </cell>
-        </row>
-        <row r="32">
-          <cell r="A32" t="str">
-            <v>residencial</v>
-          </cell>
-          <cell r="B32">
-            <v>2043</v>
-          </cell>
-        </row>
-        <row r="33">
-          <cell r="A33" t="str">
-            <v>residencial</v>
-          </cell>
-          <cell r="B33">
-            <v>2044</v>
-          </cell>
-        </row>
-        <row r="34">
-          <cell r="A34" t="str">
-            <v>residencial</v>
-          </cell>
-          <cell r="B34">
-            <v>2045</v>
-          </cell>
-        </row>
-        <row r="35">
-          <cell r="A35" t="str">
-            <v>residencial</v>
-          </cell>
-          <cell r="B35">
-            <v>2046</v>
-          </cell>
-        </row>
-        <row r="36">
-          <cell r="A36" t="str">
-            <v>residencial</v>
-          </cell>
-          <cell r="B36">
-            <v>2047</v>
-          </cell>
-        </row>
-        <row r="37">
-          <cell r="A37" t="str">
-            <v>residencial</v>
-          </cell>
-          <cell r="B37">
-            <v>2048</v>
-          </cell>
-        </row>
-        <row r="38">
-          <cell r="A38" t="str">
-            <v>residencial</v>
-          </cell>
-          <cell r="B38">
-            <v>2049</v>
-          </cell>
-        </row>
-        <row r="39">
-          <cell r="A39" t="str">
-            <v>residencial</v>
-          </cell>
-          <cell r="B39">
-            <v>2050</v>
-          </cell>
-        </row>
-        <row r="50">
-          <cell r="A50" t="str">
-            <v>comercial_bt</v>
-          </cell>
-          <cell r="B50">
-            <v>2013</v>
-          </cell>
-        </row>
-        <row r="51">
-          <cell r="A51" t="str">
-            <v>comercial_bt</v>
-          </cell>
-          <cell r="B51">
-            <v>2014</v>
-          </cell>
-        </row>
-        <row r="52">
-          <cell r="A52" t="str">
-            <v>comercial_bt</v>
-          </cell>
-          <cell r="B52">
-            <v>2015</v>
-          </cell>
-        </row>
-        <row r="53">
-          <cell r="A53" t="str">
-            <v>comercial_bt</v>
-          </cell>
-          <cell r="B53">
-            <v>2016</v>
-          </cell>
-        </row>
-        <row r="54">
-          <cell r="A54" t="str">
-            <v>comercial_bt</v>
-          </cell>
-          <cell r="B54">
-            <v>2017</v>
-          </cell>
-        </row>
-        <row r="55">
-          <cell r="A55" t="str">
-            <v>comercial_bt</v>
-          </cell>
-          <cell r="B55">
-            <v>2018</v>
-          </cell>
-        </row>
-        <row r="56">
-          <cell r="A56" t="str">
-            <v>comercial_bt</v>
-          </cell>
-          <cell r="B56">
-            <v>2019</v>
-          </cell>
-        </row>
-        <row r="57">
-          <cell r="A57" t="str">
-            <v>comercial_bt</v>
-          </cell>
-          <cell r="B57">
-            <v>2020</v>
-          </cell>
-        </row>
-        <row r="58">
-          <cell r="A58" t="str">
-            <v>comercial_bt</v>
-          </cell>
-          <cell r="B58">
-            <v>2021</v>
-          </cell>
-        </row>
-        <row r="59">
-          <cell r="A59" t="str">
-            <v>comercial_bt</v>
-          </cell>
-          <cell r="B59">
-            <v>2022</v>
-          </cell>
-        </row>
-        <row r="60">
-          <cell r="A60" t="str">
-            <v>comercial_bt</v>
-          </cell>
-          <cell r="B60">
-            <v>2023</v>
-          </cell>
-        </row>
-        <row r="61">
-          <cell r="A61" t="str">
-            <v>comercial_bt</v>
-          </cell>
-          <cell r="B61">
-            <v>2024</v>
-          </cell>
-        </row>
-        <row r="62">
-          <cell r="A62" t="str">
-            <v>comercial_bt</v>
-          </cell>
-          <cell r="B62">
-            <v>2025</v>
-          </cell>
-        </row>
-        <row r="63">
-          <cell r="A63" t="str">
-            <v>comercial_bt</v>
-          </cell>
-          <cell r="B63">
-            <v>2026</v>
-          </cell>
-        </row>
-        <row r="64">
-          <cell r="A64" t="str">
-            <v>comercial_bt</v>
-          </cell>
-          <cell r="B64">
-            <v>2027</v>
-          </cell>
-        </row>
-        <row r="65">
-          <cell r="A65" t="str">
-            <v>comercial_bt</v>
-          </cell>
-          <cell r="B65">
-            <v>2028</v>
-          </cell>
-        </row>
-        <row r="66">
-          <cell r="A66" t="str">
-            <v>comercial_bt</v>
-          </cell>
-          <cell r="B66">
-            <v>2029</v>
-          </cell>
-        </row>
-        <row r="67">
-          <cell r="A67" t="str">
-            <v>comercial_bt</v>
-          </cell>
-          <cell r="B67">
-            <v>2030</v>
-          </cell>
-        </row>
-        <row r="68">
-          <cell r="A68" t="str">
-            <v>comercial_bt</v>
-          </cell>
-          <cell r="B68">
-            <v>2031</v>
-          </cell>
-        </row>
-        <row r="69">
-          <cell r="A69" t="str">
-            <v>comercial_bt</v>
-          </cell>
-          <cell r="B69">
-            <v>2032</v>
-          </cell>
-        </row>
-        <row r="70">
-          <cell r="A70" t="str">
-            <v>comercial_bt</v>
-          </cell>
-          <cell r="B70">
-            <v>2033</v>
-          </cell>
-        </row>
-        <row r="71">
-          <cell r="A71" t="str">
-            <v>comercial_bt</v>
-          </cell>
-          <cell r="B71">
-            <v>2034</v>
-          </cell>
-        </row>
-        <row r="72">
-          <cell r="A72" t="str">
-            <v>comercial_bt</v>
-          </cell>
-          <cell r="B72">
-            <v>2035</v>
-          </cell>
-        </row>
-        <row r="73">
-          <cell r="A73" t="str">
-            <v>comercial_bt</v>
-          </cell>
-          <cell r="B73">
-            <v>2036</v>
-          </cell>
-        </row>
-        <row r="74">
-          <cell r="A74" t="str">
-            <v>comercial_bt</v>
-          </cell>
-          <cell r="B74">
-            <v>2037</v>
-          </cell>
-        </row>
-        <row r="75">
-          <cell r="A75" t="str">
-            <v>comercial_bt</v>
-          </cell>
-          <cell r="B75">
-            <v>2038</v>
-          </cell>
-        </row>
-        <row r="76">
-          <cell r="A76" t="str">
-            <v>comercial_bt</v>
-          </cell>
-          <cell r="B76">
-            <v>2039</v>
-          </cell>
-        </row>
-        <row r="77">
-          <cell r="A77" t="str">
-            <v>comercial_bt</v>
-          </cell>
-          <cell r="B77">
-            <v>2040</v>
-          </cell>
-        </row>
-        <row r="78">
-          <cell r="A78" t="str">
-            <v>comercial_bt</v>
-          </cell>
-          <cell r="B78">
-            <v>2041</v>
-          </cell>
-        </row>
-        <row r="79">
-          <cell r="A79" t="str">
-            <v>comercial_bt</v>
-          </cell>
-          <cell r="B79">
-            <v>2042</v>
-          </cell>
-        </row>
-        <row r="80">
-          <cell r="A80" t="str">
-            <v>comercial_bt</v>
-          </cell>
-          <cell r="B80">
-            <v>2043</v>
-          </cell>
-        </row>
-        <row r="81">
-          <cell r="A81" t="str">
-            <v>comercial_bt</v>
-          </cell>
-          <cell r="B81">
-            <v>2044</v>
-          </cell>
-        </row>
-        <row r="82">
-          <cell r="A82" t="str">
-            <v>comercial_bt</v>
-          </cell>
-          <cell r="B82">
-            <v>2045</v>
-          </cell>
-        </row>
-        <row r="83">
-          <cell r="A83" t="str">
-            <v>comercial_bt</v>
-          </cell>
-          <cell r="B83">
-            <v>2046</v>
-          </cell>
-        </row>
-        <row r="84">
-          <cell r="A84" t="str">
-            <v>comercial_bt</v>
-          </cell>
-          <cell r="B84">
-            <v>2047</v>
-          </cell>
-        </row>
-        <row r="85">
-          <cell r="A85" t="str">
-            <v>comercial_bt</v>
-          </cell>
-          <cell r="B85">
-            <v>2048</v>
-          </cell>
-        </row>
-        <row r="86">
-          <cell r="A86" t="str">
-            <v>comercial_bt</v>
-          </cell>
-          <cell r="B86">
-            <v>2049</v>
-          </cell>
-        </row>
-        <row r="87">
-          <cell r="A87" t="str">
-            <v>comercial_bt</v>
-          </cell>
-          <cell r="B87">
-            <v>2050</v>
-          </cell>
-        </row>
-        <row r="98">
-          <cell r="A98" t="str">
-            <v>comercial_at</v>
-          </cell>
-          <cell r="B98">
-            <v>2013</v>
-          </cell>
-        </row>
-        <row r="99">
-          <cell r="A99" t="str">
-            <v>comercial_at</v>
-          </cell>
-          <cell r="B99">
-            <v>2014</v>
-          </cell>
-        </row>
-        <row r="100">
-          <cell r="A100" t="str">
-            <v>comercial_at</v>
-          </cell>
-          <cell r="B100">
-            <v>2015</v>
-          </cell>
-        </row>
-        <row r="101">
-          <cell r="A101" t="str">
-            <v>comercial_at</v>
-          </cell>
-          <cell r="B101">
-            <v>2016</v>
-          </cell>
-        </row>
-        <row r="102">
-          <cell r="A102" t="str">
-            <v>comercial_at</v>
-          </cell>
-          <cell r="B102">
-            <v>2017</v>
-          </cell>
-        </row>
-        <row r="103">
-          <cell r="A103" t="str">
-            <v>comercial_at</v>
-          </cell>
-          <cell r="B103">
-            <v>2018</v>
-          </cell>
-        </row>
-        <row r="104">
-          <cell r="A104" t="str">
-            <v>comercial_at</v>
-          </cell>
-          <cell r="B104">
-            <v>2019</v>
-          </cell>
-        </row>
-        <row r="105">
-          <cell r="A105" t="str">
-            <v>comercial_at</v>
-          </cell>
-          <cell r="B105">
-            <v>2020</v>
-          </cell>
-        </row>
-        <row r="106">
-          <cell r="A106" t="str">
-            <v>comercial_at</v>
-          </cell>
-          <cell r="B106">
-            <v>2021</v>
-          </cell>
-        </row>
-        <row r="107">
-          <cell r="A107" t="str">
-            <v>comercial_at</v>
-          </cell>
-          <cell r="B107">
-            <v>2022</v>
-          </cell>
-        </row>
-        <row r="108">
-          <cell r="A108" t="str">
-            <v>comercial_at</v>
-          </cell>
-          <cell r="B108">
-            <v>2023</v>
-          </cell>
-        </row>
-        <row r="109">
-          <cell r="A109" t="str">
-            <v>comercial_at</v>
-          </cell>
-          <cell r="B109">
-            <v>2024</v>
-          </cell>
-        </row>
-        <row r="110">
-          <cell r="A110" t="str">
-            <v>comercial_at</v>
-          </cell>
-          <cell r="B110">
-            <v>2025</v>
-          </cell>
-        </row>
-        <row r="111">
-          <cell r="A111" t="str">
-            <v>comercial_at</v>
-          </cell>
-          <cell r="B111">
-            <v>2026</v>
-          </cell>
-        </row>
-        <row r="112">
-          <cell r="A112" t="str">
-            <v>comercial_at</v>
-          </cell>
-          <cell r="B112">
-            <v>2027</v>
-          </cell>
-        </row>
-        <row r="113">
-          <cell r="A113" t="str">
-            <v>comercial_at</v>
-          </cell>
-          <cell r="B113">
-            <v>2028</v>
-          </cell>
-        </row>
-        <row r="114">
-          <cell r="A114" t="str">
-            <v>comercial_at</v>
-          </cell>
-          <cell r="B114">
-            <v>2029</v>
-          </cell>
-        </row>
-        <row r="115">
-          <cell r="A115" t="str">
-            <v>comercial_at</v>
-          </cell>
-          <cell r="B115">
-            <v>2030</v>
-          </cell>
-        </row>
-        <row r="116">
-          <cell r="A116" t="str">
-            <v>comercial_at</v>
-          </cell>
-          <cell r="B116">
-            <v>2031</v>
-          </cell>
-        </row>
-        <row r="117">
-          <cell r="A117" t="str">
-            <v>comercial_at</v>
-          </cell>
-          <cell r="B117">
-            <v>2032</v>
-          </cell>
-        </row>
-        <row r="118">
-          <cell r="A118" t="str">
-            <v>comercial_at</v>
-          </cell>
-          <cell r="B118">
-            <v>2033</v>
-          </cell>
-        </row>
-        <row r="119">
-          <cell r="A119" t="str">
-            <v>comercial_at</v>
-          </cell>
-          <cell r="B119">
-            <v>2034</v>
-          </cell>
-        </row>
-        <row r="120">
-          <cell r="A120" t="str">
-            <v>comercial_at</v>
-          </cell>
-          <cell r="B120">
-            <v>2035</v>
-          </cell>
-        </row>
-        <row r="121">
-          <cell r="A121" t="str">
-            <v>comercial_at</v>
-          </cell>
-          <cell r="B121">
-            <v>2036</v>
-          </cell>
-        </row>
-        <row r="122">
-          <cell r="A122" t="str">
-            <v>comercial_at</v>
-          </cell>
-          <cell r="B122">
-            <v>2037</v>
-          </cell>
-        </row>
-        <row r="123">
-          <cell r="A123" t="str">
-            <v>comercial_at</v>
-          </cell>
-          <cell r="B123">
-            <v>2038</v>
-          </cell>
-        </row>
-        <row r="124">
-          <cell r="A124" t="str">
-            <v>comercial_at</v>
-          </cell>
-          <cell r="B124">
-            <v>2039</v>
-          </cell>
-        </row>
-        <row r="125">
-          <cell r="A125" t="str">
-            <v>comercial_at</v>
-          </cell>
-          <cell r="B125">
-            <v>2040</v>
-          </cell>
-        </row>
-        <row r="126">
-          <cell r="A126" t="str">
-            <v>comercial_at</v>
-          </cell>
-          <cell r="B126">
-            <v>2041</v>
-          </cell>
-        </row>
-        <row r="127">
-          <cell r="A127" t="str">
-            <v>comercial_at</v>
-          </cell>
-          <cell r="B127">
-            <v>2042</v>
-          </cell>
-        </row>
-        <row r="128">
-          <cell r="A128" t="str">
-            <v>comercial_at</v>
-          </cell>
-          <cell r="B128">
-            <v>2043</v>
-          </cell>
-        </row>
-        <row r="129">
-          <cell r="A129" t="str">
-            <v>comercial_at</v>
-          </cell>
-          <cell r="B129">
-            <v>2044</v>
-          </cell>
-        </row>
-        <row r="130">
-          <cell r="A130" t="str">
-            <v>comercial_at</v>
-          </cell>
-          <cell r="B130">
-            <v>2045</v>
-          </cell>
-        </row>
-        <row r="131">
-          <cell r="A131" t="str">
-            <v>comercial_at</v>
-          </cell>
-          <cell r="B131">
-            <v>2046</v>
-          </cell>
-        </row>
-        <row r="132">
-          <cell r="A132" t="str">
-            <v>comercial_at</v>
-          </cell>
-          <cell r="B132">
-            <v>2047</v>
-          </cell>
-        </row>
-        <row r="133">
-          <cell r="A133" t="str">
-            <v>comercial_at</v>
-          </cell>
-          <cell r="B133">
-            <v>2048</v>
-          </cell>
-        </row>
-        <row r="134">
-          <cell r="A134" t="str">
-            <v>comercial_at</v>
-          </cell>
-          <cell r="B134">
-            <v>2049</v>
-          </cell>
-        </row>
-        <row r="135">
-          <cell r="A135" t="str">
-            <v>comercial_at</v>
-          </cell>
-          <cell r="B135">
-            <v>2050</v>
-          </cell>
-        </row>
-        <row r="146">
-          <cell r="A146" t="str">
-            <v>comercial_at_remoto</v>
-          </cell>
-          <cell r="B146">
-            <v>2013</v>
-          </cell>
-        </row>
-        <row r="147">
-          <cell r="A147" t="str">
-            <v>comercial_at_remoto</v>
-          </cell>
-          <cell r="B147">
-            <v>2014</v>
-          </cell>
-        </row>
-        <row r="148">
-          <cell r="A148" t="str">
-            <v>comercial_at_remoto</v>
-          </cell>
-          <cell r="B148">
-            <v>2015</v>
-          </cell>
-        </row>
-        <row r="149">
-          <cell r="A149" t="str">
-            <v>comercial_at_remoto</v>
-          </cell>
-          <cell r="B149">
-            <v>2016</v>
-          </cell>
-        </row>
-        <row r="150">
-          <cell r="A150" t="str">
-            <v>comercial_at_remoto</v>
-          </cell>
-          <cell r="B150">
-            <v>2017</v>
-          </cell>
-        </row>
-        <row r="151">
-          <cell r="A151" t="str">
-            <v>comercial_at_remoto</v>
-          </cell>
-          <cell r="B151">
-            <v>2018</v>
-          </cell>
-        </row>
-        <row r="152">
-          <cell r="A152" t="str">
-            <v>comercial_at_remoto</v>
-          </cell>
-          <cell r="B152">
-            <v>2019</v>
-          </cell>
-        </row>
-        <row r="153">
-          <cell r="A153" t="str">
-            <v>comercial_at_remoto</v>
-          </cell>
-          <cell r="B153">
-            <v>2020</v>
-          </cell>
-        </row>
-        <row r="154">
-          <cell r="A154" t="str">
-            <v>comercial_at_remoto</v>
-          </cell>
-          <cell r="B154">
-            <v>2021</v>
-          </cell>
-        </row>
-        <row r="155">
-          <cell r="A155" t="str">
-            <v>comercial_at_remoto</v>
-          </cell>
-          <cell r="B155">
-            <v>2022</v>
-          </cell>
-        </row>
-        <row r="156">
-          <cell r="A156" t="str">
-            <v>comercial_at_remoto</v>
-          </cell>
-          <cell r="B156">
-            <v>2023</v>
-          </cell>
-        </row>
-        <row r="157">
-          <cell r="A157" t="str">
-            <v>comercial_at_remoto</v>
-          </cell>
-          <cell r="B157">
-            <v>2024</v>
-          </cell>
-        </row>
-        <row r="158">
-          <cell r="A158" t="str">
-            <v>comercial_at_remoto</v>
-          </cell>
-          <cell r="B158">
-            <v>2025</v>
-          </cell>
-        </row>
-        <row r="159">
-          <cell r="A159" t="str">
-            <v>comercial_at_remoto</v>
-          </cell>
-          <cell r="B159">
-            <v>2026</v>
-          </cell>
-        </row>
-        <row r="160">
-          <cell r="A160" t="str">
-            <v>comercial_at_remoto</v>
-          </cell>
-          <cell r="B160">
-            <v>2027</v>
-          </cell>
-        </row>
-        <row r="161">
-          <cell r="A161" t="str">
-            <v>comercial_at_remoto</v>
-          </cell>
-          <cell r="B161">
-            <v>2028</v>
-          </cell>
-        </row>
-        <row r="162">
-          <cell r="A162" t="str">
-            <v>comercial_at_remoto</v>
-          </cell>
-          <cell r="B162">
-            <v>2029</v>
-          </cell>
-        </row>
-        <row r="163">
-          <cell r="A163" t="str">
-            <v>comercial_at_remoto</v>
-          </cell>
-          <cell r="B163">
-            <v>2030</v>
-          </cell>
-        </row>
-        <row r="164">
-          <cell r="A164" t="str">
-            <v>comercial_at_remoto</v>
-          </cell>
-          <cell r="B164">
-            <v>2031</v>
-          </cell>
-        </row>
-        <row r="165">
-          <cell r="A165" t="str">
-            <v>comercial_at_remoto</v>
-          </cell>
-          <cell r="B165">
-            <v>2032</v>
-          </cell>
-        </row>
-        <row r="166">
-          <cell r="A166" t="str">
-            <v>comercial_at_remoto</v>
-          </cell>
-          <cell r="B166">
-            <v>2033</v>
-          </cell>
-        </row>
-        <row r="167">
-          <cell r="A167" t="str">
-            <v>comercial_at_remoto</v>
-          </cell>
-          <cell r="B167">
-            <v>2034</v>
-          </cell>
-        </row>
-        <row r="168">
-          <cell r="A168" t="str">
-            <v>comercial_at_remoto</v>
-          </cell>
-          <cell r="B168">
-            <v>2035</v>
-          </cell>
-        </row>
-        <row r="169">
-          <cell r="A169" t="str">
-            <v>comercial_at_remoto</v>
-          </cell>
-          <cell r="B169">
-            <v>2036</v>
-          </cell>
-        </row>
-        <row r="170">
-          <cell r="A170" t="str">
-            <v>comercial_at_remoto</v>
-          </cell>
-          <cell r="B170">
-            <v>2037</v>
-          </cell>
-        </row>
-        <row r="171">
-          <cell r="A171" t="str">
-            <v>comercial_at_remoto</v>
-          </cell>
-          <cell r="B171">
-            <v>2038</v>
-          </cell>
-        </row>
-        <row r="172">
-          <cell r="A172" t="str">
-            <v>comercial_at_remoto</v>
-          </cell>
-          <cell r="B172">
-            <v>2039</v>
-          </cell>
-        </row>
-        <row r="173">
-          <cell r="A173" t="str">
-            <v>comercial_at_remoto</v>
-          </cell>
-          <cell r="B173">
-            <v>2040</v>
-          </cell>
-        </row>
-        <row r="174">
-          <cell r="A174" t="str">
-            <v>comercial_at_remoto</v>
-          </cell>
-          <cell r="B174">
-            <v>2041</v>
-          </cell>
-        </row>
-        <row r="175">
-          <cell r="A175" t="str">
-            <v>comercial_at_remoto</v>
-          </cell>
-          <cell r="B175">
-            <v>2042</v>
-          </cell>
-        </row>
-        <row r="176">
-          <cell r="A176" t="str">
-            <v>comercial_at_remoto</v>
-          </cell>
-          <cell r="B176">
-            <v>2043</v>
-          </cell>
-        </row>
-        <row r="177">
-          <cell r="A177" t="str">
-            <v>comercial_at_remoto</v>
-          </cell>
-          <cell r="B177">
-            <v>2044</v>
-          </cell>
-        </row>
-        <row r="178">
-          <cell r="A178" t="str">
-            <v>comercial_at_remoto</v>
-          </cell>
-          <cell r="B178">
-            <v>2045</v>
-          </cell>
-        </row>
-        <row r="179">
-          <cell r="A179" t="str">
-            <v>comercial_at_remoto</v>
-          </cell>
-          <cell r="B179">
-            <v>2046</v>
-          </cell>
-        </row>
-        <row r="180">
-          <cell r="A180" t="str">
-            <v>comercial_at_remoto</v>
-          </cell>
-          <cell r="B180">
-            <v>2047</v>
-          </cell>
-        </row>
-        <row r="181">
-          <cell r="A181" t="str">
-            <v>comercial_at_remoto</v>
-          </cell>
-          <cell r="B181">
-            <v>2048</v>
-          </cell>
-        </row>
-        <row r="182">
-          <cell r="A182" t="str">
-            <v>comercial_at_remoto</v>
-          </cell>
-          <cell r="B182">
-            <v>2049</v>
-          </cell>
-        </row>
-        <row r="183">
-          <cell r="A183" t="str">
-            <v>comercial_at_remoto</v>
-          </cell>
-          <cell r="B183">
-            <v>2050</v>
-          </cell>
-        </row>
-        <row r="194">
-          <cell r="A194" t="str">
-            <v>residencial_remoto</v>
-          </cell>
-          <cell r="B194">
-            <v>2013</v>
-          </cell>
-        </row>
-        <row r="195">
-          <cell r="A195" t="str">
-            <v>residencial_remoto</v>
-          </cell>
-          <cell r="B195">
-            <v>2014</v>
-          </cell>
-        </row>
-        <row r="196">
-          <cell r="A196" t="str">
-            <v>residencial_remoto</v>
-          </cell>
-          <cell r="B196">
-            <v>2015</v>
-          </cell>
-        </row>
-        <row r="197">
-          <cell r="A197" t="str">
-            <v>residencial_remoto</v>
-          </cell>
-          <cell r="B197">
-            <v>2016</v>
-          </cell>
-        </row>
-        <row r="198">
-          <cell r="A198" t="str">
-            <v>residencial_remoto</v>
-          </cell>
-          <cell r="B198">
-            <v>2017</v>
-          </cell>
-        </row>
-        <row r="199">
-          <cell r="A199" t="str">
-            <v>residencial_remoto</v>
-          </cell>
-          <cell r="B199">
-            <v>2018</v>
-          </cell>
-        </row>
-        <row r="200">
-          <cell r="A200" t="str">
-            <v>residencial_remoto</v>
-          </cell>
-          <cell r="B200">
-            <v>2019</v>
-          </cell>
-        </row>
-        <row r="201">
-          <cell r="A201" t="str">
-            <v>residencial_remoto</v>
-          </cell>
-          <cell r="B201">
-            <v>2020</v>
-          </cell>
-        </row>
-        <row r="202">
-          <cell r="A202" t="str">
-            <v>residencial_remoto</v>
-          </cell>
-          <cell r="B202">
-            <v>2021</v>
-          </cell>
-        </row>
-        <row r="203">
-          <cell r="A203" t="str">
-            <v>residencial_remoto</v>
-          </cell>
-          <cell r="B203">
-            <v>2022</v>
-          </cell>
-        </row>
-        <row r="204">
-          <cell r="A204" t="str">
-            <v>residencial_remoto</v>
-          </cell>
-          <cell r="B204">
-            <v>2023</v>
-          </cell>
-        </row>
-        <row r="205">
-          <cell r="A205" t="str">
-            <v>residencial_remoto</v>
-          </cell>
-          <cell r="B205">
-            <v>2024</v>
-          </cell>
-        </row>
-        <row r="206">
-          <cell r="A206" t="str">
-            <v>residencial_remoto</v>
-          </cell>
-          <cell r="B206">
-            <v>2025</v>
-          </cell>
-        </row>
-        <row r="207">
-          <cell r="A207" t="str">
-            <v>residencial_remoto</v>
-          </cell>
-          <cell r="B207">
-            <v>2026</v>
-          </cell>
-        </row>
-        <row r="208">
-          <cell r="A208" t="str">
-            <v>residencial_remoto</v>
-          </cell>
-          <cell r="B208">
-            <v>2027</v>
-          </cell>
-        </row>
-        <row r="209">
-          <cell r="A209" t="str">
-            <v>residencial_remoto</v>
-          </cell>
-          <cell r="B209">
-            <v>2028</v>
-          </cell>
-        </row>
-        <row r="210">
-          <cell r="A210" t="str">
-            <v>residencial_remoto</v>
-          </cell>
-          <cell r="B210">
-            <v>2029</v>
-          </cell>
-        </row>
-        <row r="211">
-          <cell r="A211" t="str">
-            <v>residencial_remoto</v>
-          </cell>
-          <cell r="B211">
-            <v>2030</v>
-          </cell>
-        </row>
-        <row r="212">
-          <cell r="A212" t="str">
-            <v>residencial_remoto</v>
-          </cell>
-          <cell r="B212">
-            <v>2031</v>
-          </cell>
-        </row>
-        <row r="213">
-          <cell r="A213" t="str">
-            <v>residencial_remoto</v>
-          </cell>
-          <cell r="B213">
-            <v>2032</v>
-          </cell>
-        </row>
-        <row r="214">
-          <cell r="A214" t="str">
-            <v>residencial_remoto</v>
-          </cell>
-          <cell r="B214">
-            <v>2033</v>
-          </cell>
-        </row>
-        <row r="215">
-          <cell r="A215" t="str">
-            <v>residencial_remoto</v>
-          </cell>
-          <cell r="B215">
-            <v>2034</v>
-          </cell>
-        </row>
-        <row r="216">
-          <cell r="A216" t="str">
-            <v>residencial_remoto</v>
-          </cell>
-          <cell r="B216">
-            <v>2035</v>
-          </cell>
-        </row>
-        <row r="217">
-          <cell r="A217" t="str">
-            <v>residencial_remoto</v>
-          </cell>
-          <cell r="B217">
-            <v>2036</v>
-          </cell>
-        </row>
-        <row r="218">
-          <cell r="A218" t="str">
-            <v>residencial_remoto</v>
-          </cell>
-          <cell r="B218">
-            <v>2037</v>
-          </cell>
-        </row>
-        <row r="219">
-          <cell r="A219" t="str">
-            <v>residencial_remoto</v>
-          </cell>
-          <cell r="B219">
-            <v>2038</v>
-          </cell>
-        </row>
-        <row r="220">
-          <cell r="A220" t="str">
-            <v>residencial_remoto</v>
-          </cell>
-          <cell r="B220">
-            <v>2039</v>
-          </cell>
-        </row>
-        <row r="221">
-          <cell r="A221" t="str">
-            <v>residencial_remoto</v>
-          </cell>
-          <cell r="B221">
-            <v>2040</v>
-          </cell>
-        </row>
-        <row r="222">
-          <cell r="A222" t="str">
-            <v>residencial_remoto</v>
-          </cell>
-          <cell r="B222">
-            <v>2041</v>
-          </cell>
-        </row>
-        <row r="223">
-          <cell r="A223" t="str">
-            <v>residencial_remoto</v>
-          </cell>
-          <cell r="B223">
-            <v>2042</v>
-          </cell>
-        </row>
-        <row r="224">
-          <cell r="A224" t="str">
-            <v>residencial_remoto</v>
-          </cell>
-          <cell r="B224">
-            <v>2043</v>
-          </cell>
-        </row>
-        <row r="225">
-          <cell r="A225" t="str">
-            <v>residencial_remoto</v>
-          </cell>
-          <cell r="B225">
-            <v>2044</v>
-          </cell>
-        </row>
-        <row r="226">
-          <cell r="A226" t="str">
-            <v>residencial_remoto</v>
-          </cell>
-          <cell r="B226">
-            <v>2045</v>
-          </cell>
-        </row>
-        <row r="227">
-          <cell r="A227" t="str">
-            <v>residencial_remoto</v>
-          </cell>
-          <cell r="B227">
-            <v>2046</v>
-          </cell>
-        </row>
-        <row r="228">
-          <cell r="A228" t="str">
-            <v>residencial_remoto</v>
-          </cell>
-          <cell r="B228">
-            <v>2047</v>
-          </cell>
-        </row>
-        <row r="229">
-          <cell r="A229" t="str">
-            <v>residencial_remoto</v>
-          </cell>
-          <cell r="B229">
-            <v>2048</v>
-          </cell>
-        </row>
-        <row r="230">
-          <cell r="A230" t="str">
-            <v>residencial_remoto</v>
-          </cell>
-          <cell r="B230">
-            <v>2049</v>
-          </cell>
-        </row>
-        <row r="231">
-          <cell r="A231" t="str">
-            <v>residencial_remoto</v>
-          </cell>
-          <cell r="B231">
-            <v>2050</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="1">
-        <row r="11">
-          <cell r="B11">
-            <v>2013</v>
-          </cell>
-          <cell r="C11">
-            <v>2014</v>
-          </cell>
-          <cell r="D11">
-            <v>2015</v>
-          </cell>
-          <cell r="E11">
-            <v>2016</v>
-          </cell>
-          <cell r="F11">
-            <v>2017</v>
-          </cell>
-          <cell r="G11">
-            <v>2018</v>
-          </cell>
-          <cell r="H11">
-            <v>2019</v>
-          </cell>
-          <cell r="I11">
-            <v>2020</v>
-          </cell>
-          <cell r="J11">
-            <v>2021</v>
-          </cell>
-          <cell r="K11">
-            <v>2022</v>
-          </cell>
-          <cell r="L11">
-            <v>2023</v>
-          </cell>
-          <cell r="M11">
-            <v>2024</v>
-          </cell>
-          <cell r="N11">
-            <v>2025</v>
-          </cell>
-          <cell r="O11">
-            <v>2026</v>
-          </cell>
-          <cell r="P11">
-            <v>2027</v>
-          </cell>
-          <cell r="Q11">
-            <v>2028</v>
-          </cell>
-          <cell r="R11">
-            <v>2029</v>
-          </cell>
-          <cell r="S11">
-            <v>2030</v>
-          </cell>
-          <cell r="T11">
-            <v>2031</v>
-          </cell>
-          <cell r="U11">
-            <v>2032</v>
-          </cell>
-          <cell r="V11">
-            <v>2033</v>
-          </cell>
-          <cell r="W11">
-            <v>2034</v>
-          </cell>
-          <cell r="X11">
-            <v>2035</v>
-          </cell>
-          <cell r="Y11">
-            <v>2036</v>
-          </cell>
-          <cell r="Z11">
-            <v>2037</v>
-          </cell>
-          <cell r="AA11">
-            <v>2038</v>
-          </cell>
-          <cell r="AB11">
-            <v>2039</v>
-          </cell>
-          <cell r="AC11">
-            <v>2040</v>
-          </cell>
-          <cell r="AD11">
-            <v>2041</v>
-          </cell>
-          <cell r="AE11">
-            <v>2042</v>
-          </cell>
-          <cell r="AF11">
-            <v>2043</v>
-          </cell>
-          <cell r="AG11">
-            <v>2044</v>
-          </cell>
-          <cell r="AH11">
-            <v>2045</v>
-          </cell>
-          <cell r="AI11">
-            <v>2046</v>
-          </cell>
-          <cell r="AJ11">
-            <v>2047</v>
-          </cell>
-          <cell r="AK11">
-            <v>2048</v>
-          </cell>
-          <cell r="AL11">
-            <v>2049</v>
-          </cell>
-          <cell r="AM11">
-            <v>2050</v>
-          </cell>
-        </row>
-        <row r="12">
-          <cell r="A12" t="str">
-            <v>residencial</v>
-          </cell>
-          <cell r="B12">
-            <v>8.69</v>
-          </cell>
-          <cell r="C12">
-            <v>8.81</v>
-          </cell>
-          <cell r="D12">
-            <v>8.58</v>
-          </cell>
-          <cell r="E12">
-            <v>7.51</v>
-          </cell>
-          <cell r="F12">
-            <v>6.52</v>
-          </cell>
-          <cell r="G12">
-            <v>5.76</v>
-          </cell>
-          <cell r="H12">
-            <v>5</v>
-          </cell>
-          <cell r="I12">
-            <v>4.76</v>
-          </cell>
-          <cell r="J12">
-            <v>4.88</v>
-          </cell>
-          <cell r="K12">
-            <v>4.88</v>
-          </cell>
-          <cell r="L12">
-            <v>3.68</v>
-          </cell>
-          <cell r="M12">
-            <v>2.93</v>
-          </cell>
-          <cell r="N12">
-            <v>3.1644000000000005</v>
-          </cell>
-          <cell r="O12">
-            <v>3.0732652800000002</v>
-          </cell>
-          <cell r="P12">
-            <v>2.9847552399360002</v>
-          </cell>
-          <cell r="Q12">
-            <v>2.8987942890258434</v>
-          </cell>
-          <cell r="R12">
-            <v>2.8153090135018988</v>
-          </cell>
-          <cell r="S12">
-            <v>2.7342281139130438</v>
-          </cell>
-          <cell r="T12">
-            <v>2.6939463691377408</v>
-          </cell>
-          <cell r="U12">
-            <v>2.6542580711761419</v>
-          </cell>
-          <cell r="V12">
-            <v>2.6151544771318647</v>
-          </cell>
-          <cell r="W12">
-            <v>2.5766269729123805</v>
-          </cell>
-          <cell r="X12">
-            <v>2.5386670713314259</v>
-          </cell>
-          <cell r="Y12">
-            <v>2.501266410239368</v>
-          </cell>
-          <cell r="Z12">
-            <v>2.4644167506811145</v>
-          </cell>
-          <cell r="AA12">
-            <v>2.4281099750811634</v>
-          </cell>
-          <cell r="AB12">
-            <v>2.3923380854553891</v>
-          </cell>
-          <cell r="AC12">
-            <v>2.3570932016491741</v>
-          </cell>
-          <cell r="AD12">
-            <v>2.3258278179508816</v>
-          </cell>
-          <cell r="AE12">
-            <v>2.2949771502328979</v>
-          </cell>
-          <cell r="AF12">
-            <v>2.2645356975442041</v>
-          </cell>
-          <cell r="AG12">
-            <v>2.2344980319004941</v>
-          </cell>
-          <cell r="AH12">
-            <v>2.2048587973163172</v>
-          </cell>
-          <cell r="AI12">
-            <v>2.1756127088500579</v>
-          </cell>
-          <cell r="AJ12">
-            <v>2.1467545516615827</v>
-          </cell>
-          <cell r="AK12">
-            <v>2.1182791800823875</v>
-          </cell>
-          <cell r="AL12">
-            <v>2.0901815166980793</v>
-          </cell>
-          <cell r="AM12">
-            <v>2.0624565514430269</v>
-          </cell>
-        </row>
-        <row r="13">
-          <cell r="A13" t="str">
-            <v>residencial_remoto</v>
-          </cell>
-          <cell r="B13">
-            <v>7.7303680981595102</v>
-          </cell>
-          <cell r="C13">
-            <v>7.8371165644171796</v>
-          </cell>
-          <cell r="D13">
-            <v>7.6325153374233139</v>
-          </cell>
-          <cell r="E13">
-            <v>6.6806748466257675</v>
-          </cell>
-          <cell r="F13">
-            <v>5.8</v>
-          </cell>
-          <cell r="G13">
-            <v>5.0999999999999996</v>
-          </cell>
-          <cell r="H13">
-            <v>4.4000000000000004</v>
-          </cell>
-          <cell r="I13">
-            <v>4.2699999999999996</v>
-          </cell>
-          <cell r="J13">
-            <v>4.38</v>
-          </cell>
-          <cell r="K13">
-            <v>4.3499999999999996</v>
-          </cell>
-          <cell r="L13">
-            <v>3.26</v>
-          </cell>
-          <cell r="M13">
-            <v>2.58</v>
-          </cell>
-          <cell r="N13">
-            <v>2.7864000000000004</v>
-          </cell>
-          <cell r="O13">
-            <v>2.7061516800000005</v>
-          </cell>
-          <cell r="P13">
-            <v>2.6282145116160005</v>
-          </cell>
-          <cell r="Q13">
-            <v>2.5525219336814597</v>
-          </cell>
-          <cell r="R13">
-            <v>2.4790093019914337</v>
-          </cell>
-          <cell r="S13">
-            <v>2.40761383409408</v>
-          </cell>
-          <cell r="T13">
-            <v>2.372143901834598</v>
-          </cell>
-          <cell r="U13">
-            <v>2.3371965268376953</v>
-          </cell>
-          <cell r="V13">
-            <v>2.3027640105802769</v>
-          </cell>
-          <cell r="W13">
-            <v>2.2688387679569768</v>
-          </cell>
-          <cell r="X13">
-            <v>2.2354133256092421</v>
-          </cell>
-          <cell r="Y13">
-            <v>2.202480320279034</v>
-          </cell>
-          <cell r="Z13">
-            <v>2.1700324971867837</v>
-          </cell>
-          <cell r="AA13">
-            <v>2.1380627084332433</v>
-          </cell>
-          <cell r="AB13">
-            <v>2.1065639114248822</v>
-          </cell>
-          <cell r="AC13">
-            <v>2.0755291673224816</v>
-          </cell>
-          <cell r="AD13">
-            <v>2.0479985564209136</v>
-          </cell>
-          <cell r="AE13">
-            <v>2.0208331220480815</v>
-          </cell>
-          <cell r="AF13">
-            <v>1.9940280203631566</v>
-          </cell>
-          <cell r="AG13">
-            <v>1.9675784717758626</v>
-          </cell>
-          <cell r="AH13">
-            <v>1.9414797600942326</v>
-          </cell>
-          <cell r="AI13">
-            <v>1.9157272316836698</v>
-          </cell>
-          <cell r="AJ13">
-            <v>1.8903162946371626</v>
-          </cell>
-          <cell r="AK13">
-            <v>1.8652424179565061</v>
-          </cell>
-          <cell r="AL13">
-            <v>1.8405011307443848</v>
-          </cell>
-          <cell r="AM13">
-            <v>1.8160880214071713</v>
-          </cell>
-        </row>
-        <row r="14">
-          <cell r="A14" t="str">
-            <v>comercial_bt</v>
-          </cell>
-          <cell r="B14">
-            <v>6.97</v>
-          </cell>
-          <cell r="C14">
-            <v>7.85</v>
-          </cell>
-          <cell r="D14">
-            <v>7.57</v>
-          </cell>
-          <cell r="E14">
-            <v>6.73</v>
-          </cell>
-          <cell r="F14">
-            <v>5.59</v>
-          </cell>
-          <cell r="G14">
-            <v>5.01</v>
-          </cell>
-          <cell r="H14">
-            <v>4.2</v>
-          </cell>
-          <cell r="I14">
-            <v>4.1100000000000003</v>
-          </cell>
-          <cell r="J14">
-            <v>4.21</v>
-          </cell>
-          <cell r="K14">
-            <v>4.16</v>
-          </cell>
-          <cell r="L14">
-            <v>3.02</v>
-          </cell>
-          <cell r="M14">
-            <v>2.3199999999999998</v>
-          </cell>
-          <cell r="N14">
-            <v>2.5055999999999998</v>
-          </cell>
-          <cell r="O14">
-            <v>2.4334387199999998</v>
-          </cell>
-          <cell r="P14">
-            <v>2.3633556848639996</v>
-          </cell>
-          <cell r="Q14">
-            <v>2.2952910411399161</v>
-          </cell>
-          <cell r="R14">
-            <v>2.2291866591550864</v>
-          </cell>
-          <cell r="S14">
-            <v>2.1649860833714198</v>
-          </cell>
-          <cell r="T14">
-            <v>2.1330906404094052</v>
-          </cell>
-          <cell r="U14">
-            <v>2.1016650939005626</v>
-          </cell>
-          <cell r="V14">
-            <v>2.0707025211419539</v>
-          </cell>
-          <cell r="W14">
-            <v>2.0401961014186765</v>
-          </cell>
-          <cell r="X14">
-            <v>2.0101391145013334</v>
-          </cell>
-          <cell r="Y14">
-            <v>1.9805249391656425</v>
-          </cell>
-          <cell r="Z14">
-            <v>1.9513470517338516</v>
-          </cell>
-          <cell r="AA14">
-            <v>1.9225990246376445</v>
-          </cell>
-          <cell r="AB14">
-            <v>1.894274525002219</v>
-          </cell>
-          <cell r="AC14">
-            <v>1.8663673132512231</v>
-          </cell>
-          <cell r="AD14">
-            <v>1.8416111049986503</v>
-          </cell>
-          <cell r="AE14">
-            <v>1.8171832725393597</v>
-          </cell>
-          <cell r="AF14">
-            <v>1.7930794601715203</v>
-          </cell>
-          <cell r="AG14">
-            <v>1.7692953699689924</v>
-          </cell>
-          <cell r="AH14">
-            <v>1.7458267610149685</v>
-          </cell>
-          <cell r="AI14">
-            <v>1.7226694486457803</v>
-          </cell>
-          <cell r="AJ14">
-            <v>1.6998193037047351</v>
-          </cell>
-          <cell r="AK14">
-            <v>1.6772722518058503</v>
-          </cell>
-          <cell r="AL14">
-            <v>1.6550242726073536</v>
-          </cell>
-          <cell r="AM14">
-            <v>1.6330713990948205</v>
-          </cell>
-        </row>
-        <row r="15">
-          <cell r="A15" t="str">
-            <v>comercial_at</v>
-          </cell>
-          <cell r="B15">
-            <v>6.69</v>
-          </cell>
-          <cell r="C15">
-            <v>6.98</v>
-          </cell>
-          <cell r="D15">
-            <v>6.86</v>
-          </cell>
-          <cell r="E15">
-            <v>6.16</v>
-          </cell>
-          <cell r="F15">
-            <v>4.5999999999999996</v>
-          </cell>
-          <cell r="G15">
-            <v>4.2300000000000004</v>
-          </cell>
-          <cell r="H15">
-            <v>3.4</v>
-          </cell>
-          <cell r="I15">
-            <v>3.62</v>
-          </cell>
-          <cell r="J15">
-            <v>3.81</v>
-          </cell>
-          <cell r="K15">
-            <v>4</v>
-          </cell>
-          <cell r="L15">
-            <v>3.03</v>
-          </cell>
-          <cell r="M15">
-            <v>2.57</v>
-          </cell>
-          <cell r="N15">
-            <v>2.7755999999999998</v>
-          </cell>
-          <cell r="O15">
-            <v>2.6956627199999996</v>
-          </cell>
-          <cell r="P15">
-            <v>2.6180276336639996</v>
-          </cell>
-          <cell r="Q15">
-            <v>2.5426284378144763</v>
-          </cell>
-          <cell r="R15">
-            <v>2.4694007388054193</v>
-          </cell>
-          <cell r="S15">
-            <v>2.3982819975278233</v>
-          </cell>
-          <cell r="T15">
-            <v>2.3629495456259364</v>
-          </cell>
-          <cell r="U15">
-            <v>2.3281376255708821</v>
-          </cell>
-          <cell r="V15">
-            <v>2.2938385686788028</v>
-          </cell>
-          <cell r="W15">
-            <v>2.2600448192439653</v>
-          </cell>
-          <cell r="X15">
-            <v>2.2267489328743224</v>
-          </cell>
-          <cell r="Y15">
-            <v>2.1939435748515956</v>
-          </cell>
-          <cell r="Z15">
-            <v>2.161621518515517</v>
-          </cell>
-          <cell r="AA15">
-            <v>2.129775643671874</v>
-          </cell>
-          <cell r="AB15">
-            <v>2.0983989350240102</v>
-          </cell>
-          <cell r="AC15">
-            <v>2.0674844806274328</v>
-          </cell>
-          <cell r="AD15">
-            <v>2.0400605775200571</v>
-          </cell>
-          <cell r="AE15">
-            <v>2.0130004355285154</v>
-          </cell>
-          <cell r="AF15">
-            <v>1.9862992295865554</v>
-          </cell>
-          <cell r="AG15">
-            <v>1.9599521986294446</v>
-          </cell>
-          <cell r="AH15">
-            <v>1.9339546447450302</v>
-          </cell>
-          <cell r="AI15">
-            <v>1.9083019323360588</v>
-          </cell>
-          <cell r="AJ15">
-            <v>1.8829894872936077</v>
-          </cell>
-          <cell r="AK15">
-            <v>1.858012796181481</v>
-          </cell>
-          <cell r="AL15">
-            <v>1.8333674054314222</v>
-          </cell>
-          <cell r="AM15">
-            <v>1.8090489205490039</v>
-          </cell>
-        </row>
-        <row r="16">
-          <cell r="A16" t="str">
-            <v>comercial_at_remoto</v>
-          </cell>
-          <cell r="B16">
-            <v>6.8203246753246765</v>
-          </cell>
-          <cell r="C16">
-            <v>7.115974025974027</v>
-          </cell>
-          <cell r="D16">
-            <v>6.993636363636365</v>
-          </cell>
-          <cell r="E16">
-            <v>6.28</v>
-          </cell>
-          <cell r="F16">
-            <v>4.47</v>
-          </cell>
-          <cell r="G16">
-            <v>4.2300000000000004</v>
-          </cell>
-          <cell r="H16">
-            <v>3.5</v>
-          </cell>
-          <cell r="I16">
-            <v>3.85</v>
-          </cell>
-          <cell r="J16">
-            <v>4.08</v>
-          </cell>
-          <cell r="K16">
-            <v>4.45</v>
-          </cell>
-          <cell r="L16">
-            <v>3.64</v>
-          </cell>
-          <cell r="M16">
-            <v>3.13</v>
-          </cell>
-          <cell r="N16">
-            <v>3.3804000000000003</v>
-          </cell>
-          <cell r="O16">
-            <v>3.28304448</v>
-          </cell>
-          <cell r="P16">
-            <v>3.1884927989759997</v>
-          </cell>
-          <cell r="Q16">
-            <v>3.0966642063654906</v>
-          </cell>
-          <cell r="R16">
-            <v>3.0074802772221645</v>
-          </cell>
-          <cell r="S16">
-            <v>2.920864845238166</v>
-          </cell>
-          <cell r="T16">
-            <v>2.8778334933109653</v>
-          </cell>
-          <cell r="U16">
-            <v>2.8354360965123973</v>
-          </cell>
-          <cell r="V16">
-            <v>2.7936633151613433</v>
-          </cell>
-          <cell r="W16">
-            <v>2.7525059471726112</v>
-          </cell>
-          <cell r="X16">
-            <v>2.7119549260298168</v>
-          </cell>
-          <cell r="Y16">
-            <v>2.6720013187881304</v>
-          </cell>
-          <cell r="Z16">
-            <v>2.6326363241064468</v>
-          </cell>
-          <cell r="AA16">
-            <v>2.593851270308547</v>
-          </cell>
-          <cell r="AB16">
-            <v>2.5556376134728223</v>
-          </cell>
-          <cell r="AC16">
-            <v>2.5179869355501423</v>
-          </cell>
-          <cell r="AD16">
-            <v>2.4845873959680076</v>
-          </cell>
-          <cell r="AE16">
-            <v>2.4516308806242231</v>
-          </cell>
-          <cell r="AF16">
-            <v>2.4191115130762326</v>
-          </cell>
-          <cell r="AG16">
-            <v>2.3870234948288567</v>
-          </cell>
-          <cell r="AH16">
-            <v>2.3553611043003677</v>
-          </cell>
-          <cell r="AI16">
-            <v>2.3241186958022819</v>
-          </cell>
-          <cell r="AJ16">
-            <v>2.2932906985326822</v>
-          </cell>
-          <cell r="AK16">
-            <v>2.2628716155828936</v>
-          </cell>
-          <cell r="AL16">
-            <v>2.2328560229573355</v>
-          </cell>
-          <cell r="AM16">
-            <v>2.2032385686063747</v>
-          </cell>
-        </row>
-      </sheetData>
-      <sheetData sheetId="2"/>
-    </sheetDataSet>
-  </externalBook>
-</externalLink>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2644,7 +388,7 @@
   <dimension ref="A1:E241"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C241"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2672,7 +416,6 @@
         <v>2013</v>
       </c>
       <c r="C2" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A2,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B2,[1]calculos!$B$11:$AM$11,0))</f>
         <v>8.69</v>
       </c>
     </row>
@@ -2684,7 +427,6 @@
         <v>2014</v>
       </c>
       <c r="C3" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A3,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B3,[1]calculos!$B$11:$AM$11,0))</f>
         <v>8.81</v>
       </c>
     </row>
@@ -2696,7 +438,6 @@
         <v>2015</v>
       </c>
       <c r="C4" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A4,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B4,[1]calculos!$B$11:$AM$11,0))</f>
         <v>8.58</v>
       </c>
     </row>
@@ -2708,7 +449,6 @@
         <v>2016</v>
       </c>
       <c r="C5" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A5,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B5,[1]calculos!$B$11:$AM$11,0))</f>
         <v>7.51</v>
       </c>
     </row>
@@ -2720,7 +460,6 @@
         <v>2017</v>
       </c>
       <c r="C6" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A6,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B6,[1]calculos!$B$11:$AM$11,0))</f>
         <v>6.52</v>
       </c>
     </row>
@@ -2732,7 +471,6 @@
         <v>2018</v>
       </c>
       <c r="C7" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A7,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B7,[1]calculos!$B$11:$AM$11,0))</f>
         <v>5.76</v>
       </c>
     </row>
@@ -2744,7 +482,6 @@
         <v>2019</v>
       </c>
       <c r="C8" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A8,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B8,[1]calculos!$B$11:$AM$11,0))</f>
         <v>5</v>
       </c>
     </row>
@@ -2756,7 +493,6 @@
         <v>2020</v>
       </c>
       <c r="C9" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A9,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B9,[1]calculos!$B$11:$AM$11,0))</f>
         <v>4.76</v>
       </c>
     </row>
@@ -2768,7 +504,6 @@
         <v>2021</v>
       </c>
       <c r="C10" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A10,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B10,[1]calculos!$B$11:$AM$11,0))</f>
         <v>4.88</v>
       </c>
     </row>
@@ -2780,7 +515,6 @@
         <v>2022</v>
       </c>
       <c r="C11" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A11,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B11,[1]calculos!$B$11:$AM$11,0))</f>
         <v>4.88</v>
       </c>
     </row>
@@ -2792,7 +526,6 @@
         <v>2023</v>
       </c>
       <c r="C12" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A12,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B12,[1]calculos!$B$11:$AM$11,0))</f>
         <v>3.68</v>
       </c>
     </row>
@@ -2804,7 +537,6 @@
         <v>2024</v>
       </c>
       <c r="C13" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A13,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B13,[1]calculos!$B$11:$AM$11,0))</f>
         <v>2.93</v>
       </c>
     </row>
@@ -2816,8 +548,7 @@
         <v>2025</v>
       </c>
       <c r="C14" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A14,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B14,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>3.1644000000000005</v>
+        <v>2.84</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
@@ -2828,8 +559,7 @@
         <v>2026</v>
       </c>
       <c r="C15" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A15,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B15,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>3.0732652800000002</v>
+        <v>2.7582079999999998</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -2840,8 +570,7 @@
         <v>2027</v>
       </c>
       <c r="C16" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A16,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B16,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.9847552399360002</v>
+        <v>2.6787716095999996</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
@@ -2852,8 +581,7 @@
         <v>2028</v>
       </c>
       <c r="C17" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A17,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B17,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.8987942890258434</v>
+        <v>2.6016229872435197</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
@@ -2864,8 +592,7 @@
         <v>2029</v>
       </c>
       <c r="C18" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A18,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B18,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.8153090135018988</v>
+        <v>2.5266962452109061</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -2876,8 +603,7 @@
         <v>2030</v>
       </c>
       <c r="C19" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A19,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B19,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.7342281139130438</v>
+        <v>2.4539273933488319</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
@@ -2888,8 +614,7 @@
         <v>2031</v>
       </c>
       <c r="C20" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A20,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B20,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.6939463691377408</v>
+        <v>2.4177751511664716</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
@@ -2900,8 +625,7 @@
         <v>2032</v>
       </c>
       <c r="C21" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A21,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B21,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.6542580711761419</v>
+        <v>2.3821555183100247</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
@@ -2912,8 +636,7 @@
         <v>2033</v>
       </c>
       <c r="C22" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A22,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B22,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.6151544771318647</v>
+        <v>2.3470606481653693</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
@@ -2924,8 +647,7 @@
         <v>2034</v>
       </c>
       <c r="C23" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A23,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B23,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.5766269729123805</v>
+        <v>2.3124828097178485</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
@@ -2936,8 +658,7 @@
         <v>2035</v>
       </c>
       <c r="C24" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A24,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B24,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.5386670713314259</v>
+        <v>2.2784143858492127</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
@@ -2948,8 +669,7 @@
         <v>2036</v>
       </c>
       <c r="C25" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A25,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B25,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.501266410239368</v>
+        <v>2.2448478716596525</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
@@ -2960,8 +680,7 @@
         <v>2037</v>
       </c>
       <c r="C26" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A26,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B26,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.4644167506811145</v>
+        <v>2.2117758728145511</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
@@ -2972,8 +691,7 @@
         <v>2038</v>
       </c>
       <c r="C27" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A27,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B27,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.4281099750811634</v>
+        <v>2.1791911039155938</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
@@ -2984,8 +702,7 @@
         <v>2039</v>
       </c>
       <c r="C28" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A28,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B28,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.3923380854553891</v>
+        <v>2.1470863868958747</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
@@ -2996,8 +713,7 @@
         <v>2040</v>
       </c>
       <c r="C29" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A29,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B29,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.3570932016491741</v>
+        <v>2.1154546494386475</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
@@ -3008,8 +724,7 @@
         <v>2041</v>
       </c>
       <c r="C30" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A30,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B30,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.3258278179508816</v>
+        <v>2.0873944517066443</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
@@ -3020,8 +735,7 @@
         <v>2042</v>
       </c>
       <c r="C31" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A31,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B31,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.2949771502328979</v>
+        <v>2.0597064551451876</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
@@ -3032,8 +746,7 @@
         <v>2043</v>
       </c>
       <c r="C32" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A32,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B32,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.2645356975442041</v>
+        <v>2.0323857227359188</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
@@ -3044,8 +757,7 @@
         <v>2044</v>
       </c>
       <c r="C33" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A33,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B33,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.2344980319004941</v>
+        <v>2.0054273829469742</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
@@ -3056,8 +768,7 @@
         <v>2045</v>
       </c>
       <c r="C34" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A34,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B34,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.2048587973163172</v>
+        <v>1.9788266288643481</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
@@ -3068,8 +779,7 @@
         <v>2046</v>
       </c>
       <c r="C35" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A35,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B35,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.1756127088500579</v>
+        <v>1.9525787173347766</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
@@ -3080,8 +790,7 @@
         <v>2047</v>
       </c>
       <c r="C36" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A36,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B36,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.1467545516615827</v>
+        <v>1.9266789681199903</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
@@ -3092,8 +801,7 @@
         <v>2048</v>
       </c>
       <c r="C37" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A37,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B37,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.1182791800823875</v>
+        <v>1.9011227630621865</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
@@ -3104,8 +812,7 @@
         <v>2049</v>
       </c>
       <c r="C38" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A38,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B38,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.0901815166980793</v>
+        <v>1.87590554526057</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
@@ -3116,8 +823,7 @@
         <v>2050</v>
       </c>
       <c r="C39" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A39,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B39,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.0624565514430269</v>
+        <v>1.8510228182588162</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -3128,8 +834,7 @@
         <v>2051</v>
       </c>
       <c r="C40" s="1">
-        <f>$C$39</f>
-        <v>2.0624565514430269</v>
+        <v>1.8510228182588162</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -3140,8 +845,7 @@
         <v>2052</v>
       </c>
       <c r="C41" s="1">
-        <f t="shared" ref="C41:C49" si="0">$C$39</f>
-        <v>2.0624565514430269</v>
+        <v>1.8510228182588162</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -3152,8 +856,7 @@
         <v>2053</v>
       </c>
       <c r="C42" s="1">
-        <f t="shared" si="0"/>
-        <v>2.0624565514430269</v>
+        <v>1.8510228182588162</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -3164,8 +867,7 @@
         <v>2054</v>
       </c>
       <c r="C43" s="1">
-        <f t="shared" si="0"/>
-        <v>2.0624565514430269</v>
+        <v>1.8510228182588162</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -3176,8 +878,7 @@
         <v>2055</v>
       </c>
       <c r="C44" s="1">
-        <f t="shared" si="0"/>
-        <v>2.0624565514430269</v>
+        <v>1.8510228182588162</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -3188,8 +889,7 @@
         <v>2056</v>
       </c>
       <c r="C45" s="1">
-        <f t="shared" si="0"/>
-        <v>2.0624565514430269</v>
+        <v>1.8510228182588162</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -3200,8 +900,7 @@
         <v>2057</v>
       </c>
       <c r="C46" s="1">
-        <f t="shared" si="0"/>
-        <v>2.0624565514430269</v>
+        <v>1.8510228182588162</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -3212,8 +911,7 @@
         <v>2058</v>
       </c>
       <c r="C47" s="1">
-        <f t="shared" si="0"/>
-        <v>2.0624565514430269</v>
+        <v>1.8510228182588162</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -3224,8 +922,7 @@
         <v>2059</v>
       </c>
       <c r="C48" s="1">
-        <f t="shared" si="0"/>
-        <v>2.0624565514430269</v>
+        <v>1.8510228182588162</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -3236,8 +933,7 @@
         <v>2060</v>
       </c>
       <c r="C49" s="1">
-        <f t="shared" si="0"/>
-        <v>2.0624565514430269</v>
+        <v>1.8510228182588162</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -3248,7 +944,6 @@
         <v>2013</v>
       </c>
       <c r="C50" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A50,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B50,[1]calculos!$B$11:$AM$11,0))</f>
         <v>6.97</v>
       </c>
     </row>
@@ -3260,7 +955,6 @@
         <v>2014</v>
       </c>
       <c r="C51" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A51,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B51,[1]calculos!$B$11:$AM$11,0))</f>
         <v>7.85</v>
       </c>
     </row>
@@ -3272,7 +966,6 @@
         <v>2015</v>
       </c>
       <c r="C52" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A52,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B52,[1]calculos!$B$11:$AM$11,0))</f>
         <v>7.57</v>
       </c>
     </row>
@@ -3284,7 +977,6 @@
         <v>2016</v>
       </c>
       <c r="C53" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A53,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B53,[1]calculos!$B$11:$AM$11,0))</f>
         <v>6.73</v>
       </c>
     </row>
@@ -3296,7 +988,6 @@
         <v>2017</v>
       </c>
       <c r="C54" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A54,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B54,[1]calculos!$B$11:$AM$11,0))</f>
         <v>5.59</v>
       </c>
     </row>
@@ -3308,7 +999,6 @@
         <v>2018</v>
       </c>
       <c r="C55" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A55,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B55,[1]calculos!$B$11:$AM$11,0))</f>
         <v>5.01</v>
       </c>
     </row>
@@ -3320,7 +1010,6 @@
         <v>2019</v>
       </c>
       <c r="C56" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A56,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B56,[1]calculos!$B$11:$AM$11,0))</f>
         <v>4.2</v>
       </c>
     </row>
@@ -3332,7 +1021,6 @@
         <v>2020</v>
       </c>
       <c r="C57" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A57,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B57,[1]calculos!$B$11:$AM$11,0))</f>
         <v>4.1100000000000003</v>
       </c>
     </row>
@@ -3344,7 +1032,6 @@
         <v>2021</v>
       </c>
       <c r="C58" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A58,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B58,[1]calculos!$B$11:$AM$11,0))</f>
         <v>4.21</v>
       </c>
     </row>
@@ -3356,7 +1043,6 @@
         <v>2022</v>
       </c>
       <c r="C59" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A59,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B59,[1]calculos!$B$11:$AM$11,0))</f>
         <v>4.16</v>
       </c>
     </row>
@@ -3368,7 +1054,6 @@
         <v>2023</v>
       </c>
       <c r="C60" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A60,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B60,[1]calculos!$B$11:$AM$11,0))</f>
         <v>3.02</v>
       </c>
     </row>
@@ -3380,7 +1065,6 @@
         <v>2024</v>
       </c>
       <c r="C61" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A61,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B61,[1]calculos!$B$11:$AM$11,0))</f>
         <v>2.3199999999999998</v>
       </c>
     </row>
@@ -3392,8 +1076,7 @@
         <v>2025</v>
       </c>
       <c r="C62" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A62,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B62,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.5055999999999998</v>
+        <v>2.1800000000000002</v>
       </c>
     </row>
     <row r="63" spans="1:3" x14ac:dyDescent="0.25">
@@ -3404,8 +1087,7 @@
         <v>2026</v>
       </c>
       <c r="C63" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A63,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B63,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.4334387199999998</v>
+        <v>2.117216</v>
       </c>
     </row>
     <row r="64" spans="1:3" x14ac:dyDescent="0.25">
@@ -3416,8 +1098,7 @@
         <v>2027</v>
       </c>
       <c r="C64" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A64,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B64,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.3633556848639996</v>
+        <v>2.0562401792</v>
       </c>
     </row>
     <row r="65" spans="1:3" x14ac:dyDescent="0.25">
@@ -3428,8 +1109,7 @@
         <v>2028</v>
       </c>
       <c r="C65" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A65,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B65,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.2952910411399161</v>
+        <v>1.9970204620390399</v>
       </c>
     </row>
     <row r="66" spans="1:3" x14ac:dyDescent="0.25">
@@ -3440,8 +1120,7 @@
         <v>2029</v>
       </c>
       <c r="C66" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A66,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B66,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.2291866591550864</v>
+        <v>1.9395062727323156</v>
       </c>
     </row>
     <row r="67" spans="1:3" x14ac:dyDescent="0.25">
@@ -3452,8 +1131,7 @@
         <v>2030</v>
       </c>
       <c r="C67" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A67,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B67,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.1649860833714198</v>
+        <v>1.8836484920776249</v>
       </c>
     </row>
     <row r="68" spans="1:3" x14ac:dyDescent="0.25">
@@ -3464,8 +1142,7 @@
         <v>2031</v>
       </c>
       <c r="C68" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A68,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B68,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.1330906404094052</v>
+        <v>1.8558978273038413</v>
       </c>
     </row>
     <row r="69" spans="1:3" x14ac:dyDescent="0.25">
@@ -3476,8 +1153,7 @@
         <v>2032</v>
       </c>
       <c r="C69" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A69,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B69,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.1016650939005626</v>
+        <v>1.8285559964492448</v>
       </c>
     </row>
     <row r="70" spans="1:3" x14ac:dyDescent="0.25">
@@ -3488,8 +1164,7 @@
         <v>2033</v>
       </c>
       <c r="C70" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A70,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B70,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.0707025211419539</v>
+        <v>1.8016169764086292</v>
       </c>
     </row>
     <row r="71" spans="1:3" x14ac:dyDescent="0.25">
@@ -3500,8 +1175,7 @@
         <v>2034</v>
       </c>
       <c r="C71" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A71,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B71,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.0401961014186765</v>
+        <v>1.7750748328115886</v>
       </c>
     </row>
     <row r="72" spans="1:3" x14ac:dyDescent="0.25">
@@ -3512,8 +1186,7 @@
         <v>2035</v>
       </c>
       <c r="C72" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A72,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B72,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.0101391145013334</v>
+        <v>1.7489237187152413</v>
       </c>
     </row>
     <row r="73" spans="1:3" x14ac:dyDescent="0.25">
@@ -3524,8 +1197,7 @@
         <v>2036</v>
       </c>
       <c r="C73" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A73,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B73,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>1.9805249391656425</v>
+        <v>1.7231578733162127</v>
       </c>
     </row>
     <row r="74" spans="1:3" x14ac:dyDescent="0.25">
@@ -3536,8 +1208,7 @@
         <v>2037</v>
       </c>
       <c r="C74" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A74,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B74,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>1.9513470517338516</v>
+        <v>1.6977716206815925</v>
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.25">
@@ -3548,8 +1219,7 @@
         <v>2038</v>
       </c>
       <c r="C75" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A75,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B75,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>1.9225990246376445</v>
+        <v>1.67275936849859</v>
       </c>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.25">
@@ -3560,8 +1230,7 @@
         <v>2039</v>
       </c>
       <c r="C76" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A76,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B76,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>1.894274525002219</v>
+        <v>1.6481156068426084</v>
       </c>
     </row>
     <row r="77" spans="1:3" x14ac:dyDescent="0.25">
@@ -3572,8 +1241,7 @@
         <v>2040</v>
       </c>
       <c r="C77" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A77,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B77,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>1.8663673132512231</v>
+        <v>1.623834906963469</v>
       </c>
     </row>
     <row r="78" spans="1:3" x14ac:dyDescent="0.25">
@@ -3584,8 +1252,7 @@
         <v>2041</v>
       </c>
       <c r="C78" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A78,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B78,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>1.8416111049986503</v>
+        <v>1.6022957410987624</v>
       </c>
     </row>
     <row r="79" spans="1:3" x14ac:dyDescent="0.25">
@@ -3596,8 +1263,7 @@
         <v>2042</v>
       </c>
       <c r="C79" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A79,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B79,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>1.8171832725393597</v>
+        <v>1.5810422789494754</v>
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.25">
@@ -3608,8 +1274,7 @@
         <v>2043</v>
       </c>
       <c r="C80" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A80,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B80,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>1.7930794601715203</v>
+        <v>1.5600707308325015</v>
       </c>
     </row>
     <row r="81" spans="1:3" x14ac:dyDescent="0.25">
@@ -3620,8 +1285,7 @@
         <v>2044</v>
       </c>
       <c r="C81" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A81,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B81,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>1.7692953699689924</v>
+        <v>1.5393773573325369</v>
       </c>
     </row>
     <row r="82" spans="1:3" x14ac:dyDescent="0.25">
@@ -3632,8 +1296,7 @@
         <v>2045</v>
       </c>
       <c r="C82" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A82,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B82,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>1.7458267610149685</v>
+        <v>1.5189584686353099</v>
       </c>
     </row>
     <row r="83" spans="1:3" x14ac:dyDescent="0.25">
@@ -3644,8 +1307,7 @@
         <v>2046</v>
       </c>
       <c r="C83" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A83,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B83,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>1.7226694486457803</v>
+        <v>1.4988104238696529</v>
       </c>
     </row>
     <row r="84" spans="1:3" x14ac:dyDescent="0.25">
@@ -3656,8 +1318,7 @@
         <v>2047</v>
       </c>
       <c r="C84" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A84,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B84,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>1.6998193037047351</v>
+        <v>1.4789296304583028</v>
       </c>
     </row>
     <row r="85" spans="1:3" x14ac:dyDescent="0.25">
@@ -3668,8 +1329,7 @@
         <v>2048</v>
       </c>
       <c r="C85" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A85,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B85,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>1.6772722518058503</v>
+        <v>1.4593125434773127</v>
       </c>
     </row>
     <row r="86" spans="1:3" x14ac:dyDescent="0.25">
@@ -3680,8 +1340,7 @@
         <v>2049</v>
       </c>
       <c r="C86" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A86,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B86,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>1.6550242726073536</v>
+        <v>1.4399556650239591</v>
       </c>
     </row>
     <row r="87" spans="1:3" x14ac:dyDescent="0.25">
@@ -3692,8 +1351,7 @@
         <v>2050</v>
       </c>
       <c r="C87" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A87,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B87,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>1.6330713990948205</v>
+        <v>1.4208555435930355</v>
       </c>
     </row>
     <row r="88" spans="1:3" x14ac:dyDescent="0.25">
@@ -3704,8 +1362,7 @@
         <v>2051</v>
       </c>
       <c r="C88" s="1">
-        <f>$C$87</f>
-        <v>1.6330713990948205</v>
+        <v>1.4208555435930355</v>
       </c>
     </row>
     <row r="89" spans="1:3" x14ac:dyDescent="0.25">
@@ -3716,8 +1373,7 @@
         <v>2052</v>
       </c>
       <c r="C89" s="1">
-        <f t="shared" ref="C89:C97" si="1">$C$87</f>
-        <v>1.6330713990948205</v>
+        <v>1.4208555435930355</v>
       </c>
     </row>
     <row r="90" spans="1:3" x14ac:dyDescent="0.25">
@@ -3728,8 +1384,7 @@
         <v>2053</v>
       </c>
       <c r="C90" s="1">
-        <f t="shared" si="1"/>
-        <v>1.6330713990948205</v>
+        <v>1.4208555435930355</v>
       </c>
     </row>
     <row r="91" spans="1:3" x14ac:dyDescent="0.25">
@@ -3740,8 +1395,7 @@
         <v>2054</v>
       </c>
       <c r="C91" s="1">
-        <f t="shared" si="1"/>
-        <v>1.6330713990948205</v>
+        <v>1.4208555435930355</v>
       </c>
     </row>
     <row r="92" spans="1:3" x14ac:dyDescent="0.25">
@@ -3752,8 +1406,7 @@
         <v>2055</v>
       </c>
       <c r="C92" s="1">
-        <f t="shared" si="1"/>
-        <v>1.6330713990948205</v>
+        <v>1.4208555435930355</v>
       </c>
     </row>
     <row r="93" spans="1:3" x14ac:dyDescent="0.25">
@@ -3764,8 +1417,7 @@
         <v>2056</v>
       </c>
       <c r="C93" s="1">
-        <f t="shared" si="1"/>
-        <v>1.6330713990948205</v>
+        <v>1.4208555435930355</v>
       </c>
     </row>
     <row r="94" spans="1:3" x14ac:dyDescent="0.25">
@@ -3776,8 +1428,7 @@
         <v>2057</v>
       </c>
       <c r="C94" s="1">
-        <f t="shared" si="1"/>
-        <v>1.6330713990948205</v>
+        <v>1.4208555435930355</v>
       </c>
     </row>
     <row r="95" spans="1:3" x14ac:dyDescent="0.25">
@@ -3788,8 +1439,7 @@
         <v>2058</v>
       </c>
       <c r="C95" s="1">
-        <f t="shared" si="1"/>
-        <v>1.6330713990948205</v>
+        <v>1.4208555435930355</v>
       </c>
     </row>
     <row r="96" spans="1:3" x14ac:dyDescent="0.25">
@@ -3800,8 +1450,7 @@
         <v>2059</v>
       </c>
       <c r="C96" s="1">
-        <f t="shared" si="1"/>
-        <v>1.6330713990948205</v>
+        <v>1.4208555435930355</v>
       </c>
     </row>
     <row r="97" spans="1:3" x14ac:dyDescent="0.25">
@@ -3812,8 +1461,7 @@
         <v>2060</v>
       </c>
       <c r="C97" s="1">
-        <f t="shared" si="1"/>
-        <v>1.6330713990948205</v>
+        <v>1.4208555435930355</v>
       </c>
     </row>
     <row r="98" spans="1:3" x14ac:dyDescent="0.25">
@@ -3824,7 +1472,6 @@
         <v>2013</v>
       </c>
       <c r="C98" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A98,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B98,[1]calculos!$B$11:$AM$11,0))</f>
         <v>6.69</v>
       </c>
     </row>
@@ -3836,7 +1483,6 @@
         <v>2014</v>
       </c>
       <c r="C99" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A99,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B99,[1]calculos!$B$11:$AM$11,0))</f>
         <v>6.98</v>
       </c>
     </row>
@@ -3848,7 +1494,6 @@
         <v>2015</v>
       </c>
       <c r="C100" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A100,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B100,[1]calculos!$B$11:$AM$11,0))</f>
         <v>6.86</v>
       </c>
     </row>
@@ -3860,7 +1505,6 @@
         <v>2016</v>
       </c>
       <c r="C101" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A101,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B101,[1]calculos!$B$11:$AM$11,0))</f>
         <v>6.16</v>
       </c>
     </row>
@@ -3872,7 +1516,6 @@
         <v>2017</v>
       </c>
       <c r="C102" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A102,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B102,[1]calculos!$B$11:$AM$11,0))</f>
         <v>4.5999999999999996</v>
       </c>
     </row>
@@ -3884,7 +1527,6 @@
         <v>2018</v>
       </c>
       <c r="C103" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A103,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B103,[1]calculos!$B$11:$AM$11,0))</f>
         <v>4.2300000000000004</v>
       </c>
     </row>
@@ -3896,7 +1538,6 @@
         <v>2019</v>
       </c>
       <c r="C104" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A104,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B104,[1]calculos!$B$11:$AM$11,0))</f>
         <v>3.4</v>
       </c>
     </row>
@@ -3908,7 +1549,6 @@
         <v>2020</v>
       </c>
       <c r="C105" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A105,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B105,[1]calculos!$B$11:$AM$11,0))</f>
         <v>3.62</v>
       </c>
     </row>
@@ -3920,7 +1560,6 @@
         <v>2021</v>
       </c>
       <c r="C106" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A106,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B106,[1]calculos!$B$11:$AM$11,0))</f>
         <v>3.81</v>
       </c>
     </row>
@@ -3932,7 +1571,6 @@
         <v>2022</v>
       </c>
       <c r="C107" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A107,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B107,[1]calculos!$B$11:$AM$11,0))</f>
         <v>4</v>
       </c>
     </row>
@@ -3944,7 +1582,6 @@
         <v>2023</v>
       </c>
       <c r="C108" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A108,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B108,[1]calculos!$B$11:$AM$11,0))</f>
         <v>3.03</v>
       </c>
     </row>
@@ -3956,7 +1593,6 @@
         <v>2024</v>
       </c>
       <c r="C109" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A109,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B109,[1]calculos!$B$11:$AM$11,0))</f>
         <v>2.57</v>
       </c>
     </row>
@@ -3968,8 +1604,7 @@
         <v>2025</v>
       </c>
       <c r="C110" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A110,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B110,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.7755999999999998</v>
+        <v>2.2799999999999998</v>
       </c>
     </row>
     <row r="111" spans="1:3" x14ac:dyDescent="0.25">
@@ -3980,8 +1615,7 @@
         <v>2026</v>
       </c>
       <c r="C111" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A111,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B111,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.6956627199999996</v>
+        <v>2.2143359999999999</v>
       </c>
     </row>
     <row r="112" spans="1:3" x14ac:dyDescent="0.25">
@@ -3992,8 +1626,7 @@
         <v>2027</v>
       </c>
       <c r="C112" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A112,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B112,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.6180276336639996</v>
+        <v>2.1505631231999995</v>
       </c>
     </row>
     <row r="113" spans="1:3" x14ac:dyDescent="0.25">
@@ -4004,8 +1637,7 @@
         <v>2028</v>
       </c>
       <c r="C113" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A113,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B113,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.5426284378144763</v>
+        <v>2.0886269052518394</v>
       </c>
     </row>
     <row r="114" spans="1:3" x14ac:dyDescent="0.25">
@@ -4016,8 +1648,7 @@
         <v>2029</v>
       </c>
       <c r="C114" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A114,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B114,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.4694007388054193</v>
+        <v>2.0284744503805863</v>
       </c>
     </row>
     <row r="115" spans="1:3" x14ac:dyDescent="0.25">
@@ -4028,8 +1659,7 @@
         <v>2030</v>
       </c>
       <c r="C115" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A115,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B115,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.3982819975278233</v>
+        <v>1.9700543862096254</v>
       </c>
     </row>
     <row r="116" spans="1:3" x14ac:dyDescent="0.25">
@@ -4040,8 +1670,7 @@
         <v>2031</v>
       </c>
       <c r="C116" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A116,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B116,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.3629495456259364</v>
+        <v>1.9410307551618151</v>
       </c>
     </row>
     <row r="117" spans="1:3" x14ac:dyDescent="0.25">
@@ -4052,8 +1681,7 @@
         <v>2032</v>
       </c>
       <c r="C117" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A117,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B117,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.3281376255708821</v>
+        <v>1.9124347118826959</v>
       </c>
     </row>
     <row r="118" spans="1:3" x14ac:dyDescent="0.25">
@@ -4064,8 +1692,7 @@
         <v>2033</v>
       </c>
       <c r="C118" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A118,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B118,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.2938385686788028</v>
+        <v>1.8842599569778318</v>
       </c>
     </row>
     <row r="119" spans="1:3" x14ac:dyDescent="0.25">
@@ -4076,8 +1703,7 @@
         <v>2034</v>
       </c>
       <c r="C119" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A119,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B119,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.2600448192439653</v>
+        <v>1.8565002838579912</v>
       </c>
     </row>
     <row r="120" spans="1:3" x14ac:dyDescent="0.25">
@@ -4088,8 +1714,7 @@
         <v>2035</v>
       </c>
       <c r="C120" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A120,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B120,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.2267489328743224</v>
+        <v>1.8291495773719033</v>
       </c>
     </row>
     <row r="121" spans="1:3" x14ac:dyDescent="0.25">
@@ -4100,8 +1725,7 @@
         <v>2036</v>
       </c>
       <c r="C121" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A121,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B121,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.1939435748515956</v>
+        <v>1.8022018124591577</v>
       </c>
     </row>
     <row r="122" spans="1:3" x14ac:dyDescent="0.25">
@@ -4112,8 +1736,7 @@
         <v>2037</v>
       </c>
       <c r="C122" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A122,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B122,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.161621518515517</v>
+        <v>1.7756510528229494</v>
       </c>
     </row>
     <row r="123" spans="1:3" x14ac:dyDescent="0.25">
@@ -4124,8 +1747,7 @@
         <v>2038</v>
       </c>
       <c r="C123" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A123,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B123,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.129775643671874</v>
+        <v>1.7494914496223779</v>
       </c>
     </row>
     <row r="124" spans="1:3" x14ac:dyDescent="0.25">
@@ -4136,8 +1758,7 @@
         <v>2039</v>
       </c>
       <c r="C124" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A124,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B124,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.0983989350240102</v>
+        <v>1.7237172401840117</v>
       </c>
     </row>
     <row r="125" spans="1:3" x14ac:dyDescent="0.25">
@@ -4148,8 +1769,7 @@
         <v>2040</v>
       </c>
       <c r="C125" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A125,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B125,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.0674844806274328</v>
+        <v>1.6983227467324349</v>
       </c>
     </row>
     <row r="126" spans="1:3" x14ac:dyDescent="0.25">
@@ -4160,8 +1780,7 @@
         <v>2041</v>
       </c>
       <c r="C126" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A126,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B126,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.0400605775200571</v>
+        <v>1.6757955457363198</v>
       </c>
     </row>
     <row r="127" spans="1:3" x14ac:dyDescent="0.25">
@@ -4172,8 +1791,7 @@
         <v>2042</v>
       </c>
       <c r="C127" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A127,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B127,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.0130004355285154</v>
+        <v>1.6535671541306436</v>
       </c>
     </row>
     <row r="128" spans="1:3" x14ac:dyDescent="0.25">
@@ -4184,8 +1802,7 @@
         <v>2043</v>
       </c>
       <c r="C128" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A128,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B128,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>1.9862992295865554</v>
+        <v>1.6316336083936249</v>
       </c>
     </row>
     <row r="129" spans="1:3" x14ac:dyDescent="0.25">
@@ -4196,8 +1813,7 @@
         <v>2044</v>
       </c>
       <c r="C129" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A129,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B129,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>1.9599521986294446</v>
+        <v>1.6099909975771483</v>
       </c>
     </row>
     <row r="130" spans="1:3" x14ac:dyDescent="0.25">
@@ -4208,8 +1824,7 @@
         <v>2045</v>
       </c>
       <c r="C130" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A130,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B130,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>1.9339546447450302</v>
+        <v>1.5886354626094061</v>
       </c>
     </row>
     <row r="131" spans="1:3" x14ac:dyDescent="0.25">
@@ -4220,8 +1835,7 @@
         <v>2046</v>
       </c>
       <c r="C131" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A131,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B131,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>1.9083019323360588</v>
+        <v>1.5675631956067924</v>
       </c>
     </row>
     <row r="132" spans="1:3" x14ac:dyDescent="0.25">
@@ -4232,8 +1846,7 @@
         <v>2047</v>
       </c>
       <c r="C132" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A132,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B132,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>1.8829894872936077</v>
+        <v>1.5467704391949217</v>
       </c>
     </row>
     <row r="133" spans="1:3" x14ac:dyDescent="0.25">
@@ -4244,8 +1857,7 @@
         <v>2048</v>
       </c>
       <c r="C133" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A133,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B133,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>1.858012796181481</v>
+        <v>1.5262534858386567</v>
       </c>
     </row>
     <row r="134" spans="1:3" x14ac:dyDescent="0.25">
@@ -4256,8 +1868,7 @@
         <v>2049</v>
       </c>
       <c r="C134" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A134,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B134,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>1.8333674054314222</v>
+        <v>1.5060086771810208</v>
       </c>
     </row>
     <row r="135" spans="1:3" x14ac:dyDescent="0.25">
@@ -4268,8 +1879,7 @@
         <v>2050</v>
       </c>
       <c r="C135" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A135,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B135,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>1.8090489205490039</v>
+        <v>1.4860324033908805</v>
       </c>
     </row>
     <row r="136" spans="1:3" x14ac:dyDescent="0.25">
@@ -4280,8 +1890,7 @@
         <v>2051</v>
       </c>
       <c r="C136" s="1">
-        <f>$C$135</f>
-        <v>1.8090489205490039</v>
+        <v>1.4860324033908805</v>
       </c>
     </row>
     <row r="137" spans="1:3" x14ac:dyDescent="0.25">
@@ -4292,8 +1901,7 @@
         <v>2052</v>
       </c>
       <c r="C137" s="1">
-        <f t="shared" ref="C137:C145" si="2">$C$135</f>
-        <v>1.8090489205490039</v>
+        <v>1.4860324033908805</v>
       </c>
     </row>
     <row r="138" spans="1:3" x14ac:dyDescent="0.25">
@@ -4304,8 +1912,7 @@
         <v>2053</v>
       </c>
       <c r="C138" s="1">
-        <f t="shared" si="2"/>
-        <v>1.8090489205490039</v>
+        <v>1.4860324033908805</v>
       </c>
     </row>
     <row r="139" spans="1:3" x14ac:dyDescent="0.25">
@@ -4316,8 +1923,7 @@
         <v>2054</v>
       </c>
       <c r="C139" s="1">
-        <f t="shared" si="2"/>
-        <v>1.8090489205490039</v>
+        <v>1.4860324033908805</v>
       </c>
     </row>
     <row r="140" spans="1:3" x14ac:dyDescent="0.25">
@@ -4328,8 +1934,7 @@
         <v>2055</v>
       </c>
       <c r="C140" s="1">
-        <f t="shared" si="2"/>
-        <v>1.8090489205490039</v>
+        <v>1.4860324033908805</v>
       </c>
     </row>
     <row r="141" spans="1:3" x14ac:dyDescent="0.25">
@@ -4340,8 +1945,7 @@
         <v>2056</v>
       </c>
       <c r="C141" s="1">
-        <f t="shared" si="2"/>
-        <v>1.8090489205490039</v>
+        <v>1.4860324033908805</v>
       </c>
     </row>
     <row r="142" spans="1:3" x14ac:dyDescent="0.25">
@@ -4352,8 +1956,7 @@
         <v>2057</v>
       </c>
       <c r="C142" s="1">
-        <f t="shared" si="2"/>
-        <v>1.8090489205490039</v>
+        <v>1.4860324033908805</v>
       </c>
     </row>
     <row r="143" spans="1:3" x14ac:dyDescent="0.25">
@@ -4364,8 +1967,7 @@
         <v>2058</v>
       </c>
       <c r="C143" s="1">
-        <f t="shared" si="2"/>
-        <v>1.8090489205490039</v>
+        <v>1.4860324033908805</v>
       </c>
     </row>
     <row r="144" spans="1:3" x14ac:dyDescent="0.25">
@@ -4376,8 +1978,7 @@
         <v>2059</v>
       </c>
       <c r="C144" s="1">
-        <f t="shared" si="2"/>
-        <v>1.8090489205490039</v>
+        <v>1.4860324033908805</v>
       </c>
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.25">
@@ -4388,8 +1989,7 @@
         <v>2060</v>
       </c>
       <c r="C145" s="1">
-        <f t="shared" si="2"/>
-        <v>1.8090489205490039</v>
+        <v>1.4860324033908805</v>
       </c>
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.25">
@@ -4400,7 +2000,6 @@
         <v>2013</v>
       </c>
       <c r="C146" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A146,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B146,[1]calculos!$B$11:$AM$11,0))</f>
         <v>6.8203246753246765</v>
       </c>
     </row>
@@ -4412,7 +2011,6 @@
         <v>2014</v>
       </c>
       <c r="C147" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A147,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B147,[1]calculos!$B$11:$AM$11,0))</f>
         <v>7.115974025974027</v>
       </c>
     </row>
@@ -4424,7 +2022,6 @@
         <v>2015</v>
       </c>
       <c r="C148" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A148,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B148,[1]calculos!$B$11:$AM$11,0))</f>
         <v>6.993636363636365</v>
       </c>
     </row>
@@ -4436,7 +2033,6 @@
         <v>2016</v>
       </c>
       <c r="C149" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A149,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B149,[1]calculos!$B$11:$AM$11,0))</f>
         <v>6.28</v>
       </c>
     </row>
@@ -4448,7 +2044,6 @@
         <v>2017</v>
       </c>
       <c r="C150" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A150,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B150,[1]calculos!$B$11:$AM$11,0))</f>
         <v>4.47</v>
       </c>
     </row>
@@ -4460,7 +2055,6 @@
         <v>2018</v>
       </c>
       <c r="C151" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A151,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B151,[1]calculos!$B$11:$AM$11,0))</f>
         <v>4.2300000000000004</v>
       </c>
     </row>
@@ -4472,7 +2066,6 @@
         <v>2019</v>
       </c>
       <c r="C152" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A152,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B152,[1]calculos!$B$11:$AM$11,0))</f>
         <v>3.5</v>
       </c>
     </row>
@@ -4484,7 +2077,6 @@
         <v>2020</v>
       </c>
       <c r="C153" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A153,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B153,[1]calculos!$B$11:$AM$11,0))</f>
         <v>3.85</v>
       </c>
     </row>
@@ -4496,7 +2088,6 @@
         <v>2021</v>
       </c>
       <c r="C154" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A154,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B154,[1]calculos!$B$11:$AM$11,0))</f>
         <v>4.08</v>
       </c>
     </row>
@@ -4508,7 +2099,6 @@
         <v>2022</v>
       </c>
       <c r="C155" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A155,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B155,[1]calculos!$B$11:$AM$11,0))</f>
         <v>4.45</v>
       </c>
     </row>
@@ -4520,7 +2110,6 @@
         <v>2023</v>
       </c>
       <c r="C156" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A156,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B156,[1]calculos!$B$11:$AM$11,0))</f>
         <v>3.64</v>
       </c>
     </row>
@@ -4532,7 +2121,6 @@
         <v>2024</v>
       </c>
       <c r="C157" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A157,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B157,[1]calculos!$B$11:$AM$11,0))</f>
         <v>3.13</v>
       </c>
     </row>
@@ -4544,8 +2132,7 @@
         <v>2025</v>
       </c>
       <c r="C158" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A158,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B158,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>3.3804000000000003</v>
+        <v>2.87</v>
       </c>
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.25">
@@ -4556,8 +2143,7 @@
         <v>2026</v>
       </c>
       <c r="C159" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A159,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B159,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>3.28304448</v>
+        <v>2.787344</v>
       </c>
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.25">
@@ -4568,8 +2154,7 @@
         <v>2027</v>
       </c>
       <c r="C160" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A160,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B160,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>3.1884927989759997</v>
+        <v>2.7070684927999999</v>
       </c>
     </row>
     <row r="161" spans="1:3" x14ac:dyDescent="0.25">
@@ -4580,8 +2165,7 @@
         <v>2028</v>
       </c>
       <c r="C161" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A161,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B161,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>3.0966642063654906</v>
+        <v>2.62910492020736</v>
       </c>
     </row>
     <row r="162" spans="1:3" x14ac:dyDescent="0.25">
@@ -4592,8 +2176,7 @@
         <v>2029</v>
       </c>
       <c r="C162" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A162,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B162,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>3.0074802772221645</v>
+        <v>2.5533866985053879</v>
       </c>
     </row>
     <row r="163" spans="1:3" x14ac:dyDescent="0.25">
@@ -4604,8 +2187,7 @@
         <v>2030</v>
       </c>
       <c r="C163" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A163,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B163,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.920864845238166</v>
+        <v>2.4798491615884326</v>
       </c>
     </row>
     <row r="164" spans="1:3" x14ac:dyDescent="0.25">
@@ -4616,8 +2198,7 @@
         <v>2031</v>
       </c>
       <c r="C164" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A164,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B164,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.8778334933109653</v>
+        <v>2.4433150295238644</v>
       </c>
     </row>
     <row r="165" spans="1:3" x14ac:dyDescent="0.25">
@@ -4628,8 +2209,7 @@
         <v>2032</v>
       </c>
       <c r="C165" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A165,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B165,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.8354360965123973</v>
+        <v>2.4073191329400609</v>
       </c>
     </row>
     <row r="166" spans="1:3" x14ac:dyDescent="0.25">
@@ -4640,8 +2220,7 @@
         <v>2033</v>
       </c>
       <c r="C166" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A166,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B166,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.7936633151613433</v>
+        <v>2.3718535423361309</v>
       </c>
     </row>
     <row r="167" spans="1:3" x14ac:dyDescent="0.25">
@@ -4652,8 +2231,7 @@
         <v>2034</v>
       </c>
       <c r="C167" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A167,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B167,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.7525059471726112</v>
+        <v>2.3369104450317701</v>
       </c>
     </row>
     <row r="168" spans="1:3" x14ac:dyDescent="0.25">
@@ -4664,8 +2242,7 @@
         <v>2035</v>
       </c>
       <c r="C168" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A168,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B168,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.7119549260298168</v>
+        <v>2.3024821434462122</v>
       </c>
     </row>
     <row r="169" spans="1:3" x14ac:dyDescent="0.25">
@@ -4676,8 +2253,7 @@
         <v>2036</v>
       </c>
       <c r="C169" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A169,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B169,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.6720013187881304</v>
+        <v>2.2685610534025367</v>
       </c>
     </row>
     <row r="170" spans="1:3" x14ac:dyDescent="0.25">
@@ -4688,8 +2264,7 @@
         <v>2037</v>
       </c>
       <c r="C170" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A170,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B170,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.6326363241064468</v>
+        <v>2.2351397024569586</v>
       </c>
     </row>
     <row r="171" spans="1:3" x14ac:dyDescent="0.25">
@@ -4700,8 +2275,7 @@
         <v>2038</v>
       </c>
       <c r="C171" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A171,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B171,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.593851270308547</v>
+        <v>2.2022107282527306</v>
       </c>
     </row>
     <row r="172" spans="1:3" x14ac:dyDescent="0.25">
@@ -4712,8 +2286,7 @@
         <v>2039</v>
       </c>
       <c r="C172" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A172,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B172,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.5556376134728223</v>
+        <v>2.1697668768982958</v>
       </c>
     </row>
     <row r="173" spans="1:3" x14ac:dyDescent="0.25">
@@ -4724,8 +2297,7 @@
         <v>2040</v>
       </c>
       <c r="C173" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A173,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B173,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.5179869355501423</v>
+        <v>2.1378010013693372</v>
       </c>
     </row>
     <row r="174" spans="1:3" x14ac:dyDescent="0.25">
@@ -4736,8 +2308,7 @@
         <v>2041</v>
       </c>
       <c r="C174" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A174,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B174,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.4845873959680076</v>
+        <v>2.1094443930979114</v>
       </c>
     </row>
     <row r="175" spans="1:3" x14ac:dyDescent="0.25">
@@ -4748,8 +2319,7 @@
         <v>2042</v>
       </c>
       <c r="C175" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A175,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B175,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.4516308806242231</v>
+        <v>2.081463917699538</v>
       </c>
     </row>
     <row r="176" spans="1:3" x14ac:dyDescent="0.25">
@@ -4760,8 +2330,7 @@
         <v>2043</v>
       </c>
       <c r="C176" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A176,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B176,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.4191115130762326</v>
+        <v>2.0538545860042556</v>
       </c>
     </row>
     <row r="177" spans="1:3" x14ac:dyDescent="0.25">
@@ -4772,8 +2341,7 @@
         <v>2044</v>
       </c>
       <c r="C177" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A177,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B177,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.3870234948288567</v>
+        <v>2.0266114750203572</v>
       </c>
     </row>
     <row r="178" spans="1:3" x14ac:dyDescent="0.25">
@@ -4784,8 +2352,7 @@
         <v>2045</v>
       </c>
       <c r="C178" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A178,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B178,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.3553611043003677</v>
+        <v>1.9997297270565766</v>
       </c>
     </row>
     <row r="179" spans="1:3" x14ac:dyDescent="0.25">
@@ -4796,8 +2363,7 @@
         <v>2046</v>
       </c>
       <c r="C179" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A179,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B179,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.3241186958022819</v>
+        <v>1.973204548855918</v>
       </c>
     </row>
     <row r="180" spans="1:3" x14ac:dyDescent="0.25">
@@ -4808,8 +2374,7 @@
         <v>2047</v>
       </c>
       <c r="C180" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A180,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B180,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.2932906985326822</v>
+        <v>1.9470312107409755</v>
       </c>
     </row>
     <row r="181" spans="1:3" x14ac:dyDescent="0.25">
@@ -4820,8 +2385,7 @@
         <v>2048</v>
       </c>
       <c r="C181" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A181,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B181,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.2628716155828936</v>
+        <v>1.9212050457705894</v>
       </c>
     </row>
     <row r="182" spans="1:3" x14ac:dyDescent="0.25">
@@ -4832,8 +2396,7 @@
         <v>2049</v>
       </c>
       <c r="C182" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A182,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B182,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.2328560229573355</v>
+        <v>1.8957214489076881</v>
       </c>
     </row>
     <row r="183" spans="1:3" x14ac:dyDescent="0.25">
@@ -4844,8 +2407,7 @@
         <v>2050</v>
       </c>
       <c r="C183" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A183,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B183,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.2032385686063747</v>
+        <v>1.8705758761981695</v>
       </c>
     </row>
     <row r="184" spans="1:3" x14ac:dyDescent="0.25">
@@ -4856,8 +2418,7 @@
         <v>2051</v>
       </c>
       <c r="C184" s="1">
-        <f>$C$183</f>
-        <v>2.2032385686063747</v>
+        <v>1.8705758761981695</v>
       </c>
     </row>
     <row r="185" spans="1:3" x14ac:dyDescent="0.25">
@@ -4868,8 +2429,7 @@
         <v>2052</v>
       </c>
       <c r="C185" s="1">
-        <f t="shared" ref="C185:C193" si="3">$C$183</f>
-        <v>2.2032385686063747</v>
+        <v>1.8705758761981695</v>
       </c>
     </row>
     <row r="186" spans="1:3" x14ac:dyDescent="0.25">
@@ -4880,8 +2440,7 @@
         <v>2053</v>
       </c>
       <c r="C186" s="1">
-        <f t="shared" si="3"/>
-        <v>2.2032385686063747</v>
+        <v>1.8705758761981695</v>
       </c>
     </row>
     <row r="187" spans="1:3" x14ac:dyDescent="0.25">
@@ -4892,8 +2451,7 @@
         <v>2054</v>
       </c>
       <c r="C187" s="1">
-        <f t="shared" si="3"/>
-        <v>2.2032385686063747</v>
+        <v>1.8705758761981695</v>
       </c>
     </row>
     <row r="188" spans="1:3" x14ac:dyDescent="0.25">
@@ -4904,8 +2462,7 @@
         <v>2055</v>
       </c>
       <c r="C188" s="1">
-        <f t="shared" si="3"/>
-        <v>2.2032385686063747</v>
+        <v>1.8705758761981695</v>
       </c>
     </row>
     <row r="189" spans="1:3" x14ac:dyDescent="0.25">
@@ -4916,8 +2473,7 @@
         <v>2056</v>
       </c>
       <c r="C189" s="1">
-        <f t="shared" si="3"/>
-        <v>2.2032385686063747</v>
+        <v>1.8705758761981695</v>
       </c>
     </row>
     <row r="190" spans="1:3" x14ac:dyDescent="0.25">
@@ -4928,8 +2484,7 @@
         <v>2057</v>
       </c>
       <c r="C190" s="1">
-        <f t="shared" si="3"/>
-        <v>2.2032385686063747</v>
+        <v>1.8705758761981695</v>
       </c>
     </row>
     <row r="191" spans="1:3" x14ac:dyDescent="0.25">
@@ -4940,8 +2495,7 @@
         <v>2058</v>
       </c>
       <c r="C191" s="1">
-        <f t="shared" si="3"/>
-        <v>2.2032385686063747</v>
+        <v>1.8705758761981695</v>
       </c>
     </row>
     <row r="192" spans="1:3" x14ac:dyDescent="0.25">
@@ -4952,8 +2506,7 @@
         <v>2059</v>
       </c>
       <c r="C192" s="1">
-        <f t="shared" si="3"/>
-        <v>2.2032385686063747</v>
+        <v>1.8705758761981695</v>
       </c>
     </row>
     <row r="193" spans="1:5" x14ac:dyDescent="0.25">
@@ -4964,8 +2517,7 @@
         <v>2060</v>
       </c>
       <c r="C193" s="1">
-        <f t="shared" si="3"/>
-        <v>2.2032385686063747</v>
+        <v>1.8705758761981695</v>
       </c>
     </row>
     <row r="194" spans="1:5" x14ac:dyDescent="0.25">
@@ -4976,7 +2528,6 @@
         <v>2013</v>
       </c>
       <c r="C194" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A194,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B194,[1]calculos!$B$11:$AM$11,0))</f>
         <v>7.7303680981595102</v>
       </c>
     </row>
@@ -4988,7 +2539,6 @@
         <v>2014</v>
       </c>
       <c r="C195" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A195,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B195,[1]calculos!$B$11:$AM$11,0))</f>
         <v>7.8371165644171796</v>
       </c>
     </row>
@@ -5000,7 +2550,6 @@
         <v>2015</v>
       </c>
       <c r="C196" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A196,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B196,[1]calculos!$B$11:$AM$11,0))</f>
         <v>7.6325153374233139</v>
       </c>
     </row>
@@ -5012,7 +2561,6 @@
         <v>2016</v>
       </c>
       <c r="C197" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A197,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B197,[1]calculos!$B$11:$AM$11,0))</f>
         <v>6.6806748466257675</v>
       </c>
     </row>
@@ -5024,7 +2572,6 @@
         <v>2017</v>
       </c>
       <c r="C198" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A198,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B198,[1]calculos!$B$11:$AM$11,0))</f>
         <v>5.8</v>
       </c>
     </row>
@@ -5036,7 +2583,6 @@
         <v>2018</v>
       </c>
       <c r="C199" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A199,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B199,[1]calculos!$B$11:$AM$11,0))</f>
         <v>5.0999999999999996</v>
       </c>
     </row>
@@ -5048,7 +2594,6 @@
         <v>2019</v>
       </c>
       <c r="C200" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A200,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B200,[1]calculos!$B$11:$AM$11,0))</f>
         <v>4.4000000000000004</v>
       </c>
     </row>
@@ -5060,7 +2605,6 @@
         <v>2020</v>
       </c>
       <c r="C201" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A201,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B201,[1]calculos!$B$11:$AM$11,0))</f>
         <v>4.2699999999999996</v>
       </c>
     </row>
@@ -5072,7 +2616,6 @@
         <v>2021</v>
       </c>
       <c r="C202" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A202,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B202,[1]calculos!$B$11:$AM$11,0))</f>
         <v>4.38</v>
       </c>
       <c r="E202" s="1"/>
@@ -5085,7 +2628,6 @@
         <v>2022</v>
       </c>
       <c r="C203" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A203,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B203,[1]calculos!$B$11:$AM$11,0))</f>
         <v>4.3499999999999996</v>
       </c>
       <c r="E203" s="1"/>
@@ -5098,7 +2640,6 @@
         <v>2023</v>
       </c>
       <c r="C204" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A204,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B204,[1]calculos!$B$11:$AM$11,0))</f>
         <v>3.26</v>
       </c>
       <c r="E204" s="1"/>
@@ -5111,7 +2652,6 @@
         <v>2024</v>
       </c>
       <c r="C205" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A205,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B205,[1]calculos!$B$11:$AM$11,0))</f>
         <v>2.58</v>
       </c>
       <c r="E205" s="1"/>
@@ -5124,8 +2664,7 @@
         <v>2025</v>
       </c>
       <c r="C206" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A206,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B206,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.7864000000000004</v>
+        <v>2.31</v>
       </c>
       <c r="E206" s="1"/>
     </row>
@@ -5137,8 +2676,7 @@
         <v>2026</v>
       </c>
       <c r="C207" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A207,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B207,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.7061516800000005</v>
+        <v>2.2434720000000001</v>
       </c>
       <c r="E207" s="1"/>
     </row>
@@ -5150,8 +2688,7 @@
         <v>2027</v>
       </c>
       <c r="C208" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A208,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B208,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.6282145116160005</v>
+        <v>2.1788600063999999</v>
       </c>
       <c r="E208" s="1"/>
     </row>
@@ -5163,8 +2700,7 @@
         <v>2028</v>
       </c>
       <c r="C209" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A209,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B209,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.5525219336814597</v>
+        <v>2.1161088382156796</v>
       </c>
       <c r="E209" s="1"/>
     </row>
@@ -5176,8 +2712,7 @@
         <v>2029</v>
       </c>
       <c r="C210" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A210,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B210,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.4790093019914337</v>
+        <v>2.0551649036750681</v>
       </c>
       <c r="E210" s="1"/>
     </row>
@@ -5189,8 +2724,7 @@
         <v>2030</v>
       </c>
       <c r="C211" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A211,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B211,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.40761383409408</v>
+        <v>1.995976154449226</v>
       </c>
       <c r="E211" s="1"/>
     </row>
@@ -5202,8 +2736,7 @@
         <v>2031</v>
       </c>
       <c r="C212" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A212,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B212,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.372143901834598</v>
+        <v>1.9665706335192077</v>
       </c>
       <c r="E212" s="1"/>
     </row>
@@ -5215,8 +2748,7 @@
         <v>2032</v>
       </c>
       <c r="C213" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A213,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B213,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.3371965268376953</v>
+        <v>1.9375983265127317</v>
       </c>
       <c r="E213" s="1"/>
     </row>
@@ -5228,8 +2760,7 @@
         <v>2033</v>
       </c>
       <c r="C214" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A214,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B214,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.3027640105802769</v>
+        <v>1.9090528511485929</v>
       </c>
       <c r="E214" s="1"/>
     </row>
@@ -5241,8 +2772,7 @@
         <v>2034</v>
       </c>
       <c r="C215" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A215,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B215,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.2688387679569768</v>
+        <v>1.8809279191719122</v>
       </c>
       <c r="E215" s="1"/>
     </row>
@@ -5254,8 +2784,7 @@
         <v>2035</v>
       </c>
       <c r="C216" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A216,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B216,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.2354133256092421</v>
+        <v>1.8532173349689021</v>
       </c>
       <c r="E216" s="1"/>
     </row>
@@ -5267,8 +2796,7 @@
         <v>2036</v>
       </c>
       <c r="C217" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A217,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B217,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.202480320279034</v>
+        <v>1.8259149942020414</v>
       </c>
       <c r="E217" s="1"/>
     </row>
@@ -5280,8 +2808,7 @@
         <v>2037</v>
       </c>
       <c r="C218" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A218,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B218,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.1700324971867837</v>
+        <v>1.7990148824653567</v>
       </c>
       <c r="E218" s="1"/>
     </row>
@@ -5293,8 +2820,7 @@
         <v>2038</v>
       </c>
       <c r="C219" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A219,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B219,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.1380627084332433</v>
+        <v>1.7725110739595145</v>
       </c>
       <c r="E219" s="1"/>
     </row>
@@ -5306,8 +2832,7 @@
         <v>2039</v>
       </c>
       <c r="C220" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A220,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B220,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.1065639114248822</v>
+        <v>1.7463977301864331</v>
       </c>
       <c r="E220" s="1"/>
     </row>
@@ -5319,8 +2844,7 @@
         <v>2040</v>
       </c>
       <c r="C221" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A221,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B221,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.0755291673224816</v>
+        <v>1.720669098663125</v>
       </c>
       <c r="E221" s="1"/>
     </row>
@@ -5332,8 +2856,7 @@
         <v>2041</v>
       </c>
       <c r="C222" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A222,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B222,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.0479985564209136</v>
+        <v>1.6978454871275874</v>
       </c>
       <c r="E222" s="1"/>
     </row>
@@ -5345,8 +2868,7 @@
         <v>2042</v>
       </c>
       <c r="C223" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A223,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B223,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>2.0208331220480815</v>
+        <v>1.6753246166849942</v>
       </c>
       <c r="E223" s="1"/>
     </row>
@@ -5358,8 +2880,7 @@
         <v>2043</v>
       </c>
       <c r="C224" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A224,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B224,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>1.9940280203631566</v>
+        <v>1.6531024716619622</v>
       </c>
       <c r="E224" s="1"/>
     </row>
@@ -5371,8 +2892,7 @@
         <v>2044</v>
       </c>
       <c r="C225" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A225,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B225,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>1.9675784717758626</v>
+        <v>1.6311750896505319</v>
       </c>
       <c r="E225" s="1"/>
     </row>
@@ -5384,8 +2904,7 @@
         <v>2045</v>
       </c>
       <c r="C226" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A226,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B226,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>1.9414797600942326</v>
+        <v>1.6095385608016353</v>
       </c>
       <c r="E226" s="1"/>
     </row>
@@ -5397,8 +2916,7 @@
         <v>2046</v>
       </c>
       <c r="C227" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A227,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B227,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>1.9157272316836698</v>
+        <v>1.5881890271279344</v>
       </c>
       <c r="E227" s="1"/>
     </row>
@@ -5410,8 +2928,7 @@
         <v>2047</v>
       </c>
       <c r="C228" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A228,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B228,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>1.8903162946371626</v>
+        <v>1.5671226818159076</v>
       </c>
       <c r="E228" s="1"/>
     </row>
@@ -5423,8 +2940,7 @@
         <v>2048</v>
       </c>
       <c r="C229" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A229,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B229,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>1.8652424179565061</v>
+        <v>1.5463357685470602</v>
       </c>
       <c r="E229" s="1"/>
     </row>
@@ -5436,8 +2952,7 @@
         <v>2049</v>
       </c>
       <c r="C230" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A230,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B230,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>1.8405011307443848</v>
+        <v>1.5258245808281397</v>
       </c>
       <c r="E230" s="1"/>
     </row>
@@ -5449,8 +2964,7 @@
         <v>2050</v>
       </c>
       <c r="C231" s="1">
-        <f>INDEX([1]calculos!$B$12:$AM$16,MATCH([1]custos!A231,[1]calculos!$A$12:$A$16,0),MATCH([1]custos!B231,[1]calculos!$B$11:$AM$11,0))</f>
-        <v>1.8160880214071713</v>
+        <v>1.5055854613302344</v>
       </c>
       <c r="E231" s="1"/>
     </row>
@@ -5462,8 +2976,7 @@
         <v>2051</v>
       </c>
       <c r="C232" s="1">
-        <f>$C$231</f>
-        <v>1.8160880214071713</v>
+        <v>1.5055854613302344</v>
       </c>
     </row>
     <row r="233" spans="1:5" x14ac:dyDescent="0.25">
@@ -5474,8 +2987,7 @@
         <v>2052</v>
       </c>
       <c r="C233" s="1">
-        <f t="shared" ref="C233:C241" si="4">$C$231</f>
-        <v>1.8160880214071713</v>
+        <v>1.5055854613302344</v>
       </c>
     </row>
     <row r="234" spans="1:5" x14ac:dyDescent="0.25">
@@ -5486,8 +2998,7 @@
         <v>2053</v>
       </c>
       <c r="C234" s="1">
-        <f t="shared" si="4"/>
-        <v>1.8160880214071713</v>
+        <v>1.5055854613302344</v>
       </c>
     </row>
     <row r="235" spans="1:5" x14ac:dyDescent="0.25">
@@ -5498,8 +3009,7 @@
         <v>2054</v>
       </c>
       <c r="C235" s="1">
-        <f t="shared" si="4"/>
-        <v>1.8160880214071713</v>
+        <v>1.5055854613302344</v>
       </c>
     </row>
     <row r="236" spans="1:5" x14ac:dyDescent="0.25">
@@ -5510,8 +3020,7 @@
         <v>2055</v>
       </c>
       <c r="C236" s="1">
-        <f t="shared" si="4"/>
-        <v>1.8160880214071713</v>
+        <v>1.5055854613302344</v>
       </c>
     </row>
     <row r="237" spans="1:5" x14ac:dyDescent="0.25">
@@ -5522,8 +3031,7 @@
         <v>2056</v>
       </c>
       <c r="C237" s="1">
-        <f t="shared" si="4"/>
-        <v>1.8160880214071713</v>
+        <v>1.5055854613302344</v>
       </c>
     </row>
     <row r="238" spans="1:5" x14ac:dyDescent="0.25">
@@ -5534,8 +3042,7 @@
         <v>2057</v>
       </c>
       <c r="C238" s="1">
-        <f t="shared" si="4"/>
-        <v>1.8160880214071713</v>
+        <v>1.5055854613302344</v>
       </c>
     </row>
     <row r="239" spans="1:5" x14ac:dyDescent="0.25">
@@ -5546,8 +3053,7 @@
         <v>2058</v>
       </c>
       <c r="C239" s="1">
-        <f t="shared" si="4"/>
-        <v>1.8160880214071713</v>
+        <v>1.5055854613302344</v>
       </c>
     </row>
     <row r="240" spans="1:5" x14ac:dyDescent="0.25">
@@ -5558,8 +3064,7 @@
         <v>2059</v>
       </c>
       <c r="C240" s="1">
-        <f t="shared" si="4"/>
-        <v>1.8160880214071713</v>
+        <v>1.5055854613302344</v>
       </c>
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.25">
@@ -5570,8 +3075,7 @@
         <v>2060</v>
       </c>
       <c r="C241" s="1">
-        <f t="shared" si="4"/>
-        <v>1.8160880214071713</v>
+        <v>1.5055854613302344</v>
       </c>
     </row>
   </sheetData>
